--- a/roles/fortigate.ztp/files/spreadsheets/Ansible_ZTP_Local_Simple_Topology.xlsx
+++ b/roles/fortigate.ztp/files/spreadsheets/Ansible_ZTP_Local_Simple_Topology.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fortinet-my.sharepoint.com/personal/lweighall_fortinet-us_com/Documents/Ansible ZTP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1449" documentId="8_{76316668-8358-D540-AC45-49EE0DC0AD63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{73112D0E-142D-114D-85C5-DF02D62D199F}"/>
+  <xr:revisionPtr revIDLastSave="1504" documentId="8_{76316668-8358-D540-AC45-49EE0DC0AD63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E982E764-3392-3443-8E60-7F64BADFED6A}"/>
   <bookViews>
-    <workbookView xWindow="22240" yWindow="23680" windowWidth="38420" windowHeight="18760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32160" yWindow="7000" windowWidth="38420" windowHeight="18760" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Locations" sheetId="18" r:id="rId1"/>
@@ -23,18 +23,21 @@
     <sheet name="FortiSwitchPorts" sheetId="5" r:id="rId8"/>
     <sheet name="SSIDs" sheetId="3" r:id="rId9"/>
     <sheet name="AP Profiles" sheetId="15" r:id="rId10"/>
-    <sheet name="IPSec" sheetId="7" r:id="rId11"/>
-    <sheet name="SDWAN Interfaces" sheetId="10" r:id="rId12"/>
-    <sheet name="SDWAN SLAs" sheetId="24" r:id="rId13"/>
-    <sheet name="SDWAN Rules" sheetId="23" r:id="rId14"/>
-    <sheet name="BGP Neighbors" sheetId="8" r:id="rId15"/>
-    <sheet name="BGP Neighbor Groups" sheetId="27" r:id="rId16"/>
-    <sheet name="BGP Route Maps" sheetId="20" r:id="rId17"/>
-    <sheet name="BGP Community Lists" sheetId="21" r:id="rId18"/>
-    <sheet name="Policy Packages" sheetId="30" r:id="rId19"/>
-    <sheet name="ADOM Policies" sheetId="34" r:id="rId20"/>
-    <sheet name="Address Groups" sheetId="32" r:id="rId21"/>
-    <sheet name="Service Groups" sheetId="33" r:id="rId22"/>
+    <sheet name="Radius Servers" sheetId="37" r:id="rId11"/>
+    <sheet name="IPSec" sheetId="7" r:id="rId12"/>
+    <sheet name="SDWAN Interfaces" sheetId="10" r:id="rId13"/>
+    <sheet name="SDWAN SLAs" sheetId="24" r:id="rId14"/>
+    <sheet name="SDWAN Rules" sheetId="23" r:id="rId15"/>
+    <sheet name="BGP Neighbors" sheetId="8" r:id="rId16"/>
+    <sheet name="BGP Neighbor Groups" sheetId="27" r:id="rId17"/>
+    <sheet name="BGP Route Maps" sheetId="20" r:id="rId18"/>
+    <sheet name="BGP Community Lists" sheetId="21" r:id="rId19"/>
+    <sheet name="ASPath Lists" sheetId="38" r:id="rId20"/>
+    <sheet name="Prefix Lists" sheetId="39" r:id="rId21"/>
+    <sheet name="Policy Packages" sheetId="30" r:id="rId22"/>
+    <sheet name="ADOM Policies" sheetId="34" r:id="rId23"/>
+    <sheet name="Address Groups" sheetId="32" r:id="rId24"/>
+    <sheet name="Service Groups" sheetId="33" r:id="rId25"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="356">
   <si>
     <t>VLAN ID</t>
   </si>
@@ -90,9 +93,6 @@
   </si>
   <si>
     <t>Security mode</t>
-  </si>
-  <si>
-    <t>Authentication</t>
   </si>
   <si>
     <t>WIFI-ACCESS-FG</t>
@@ -267,9 +267,6 @@
     <t>Phase1 Key Lifetime</t>
   </si>
   <si>
-    <t>Admin Access</t>
-  </si>
-  <si>
     <t>Remote Subnet</t>
   </si>
   <si>
@@ -336,12 +333,6 @@
     <t>Radio 2 Channels</t>
   </si>
   <si>
-    <t>802.11n</t>
-  </si>
-  <si>
-    <t>20mhz</t>
-  </si>
-  <si>
     <t>1,11</t>
   </si>
   <si>
@@ -564,15 +555,9 @@
     <t>Upstream FortiGate Name</t>
   </si>
   <si>
-    <t>port6,port7</t>
-  </si>
-  <si>
     <t>Port</t>
   </si>
   <si>
-    <t>FortiSwitch Trunk Interfaces</t>
-  </si>
-  <si>
     <t>FortiAP Platform</t>
   </si>
   <si>
@@ -597,9 +582,6 @@
     <t>HUB_VPN1</t>
   </si>
   <si>
-    <t>Branch Spoke VPN</t>
-  </si>
-  <si>
     <t>HUB_VPN2</t>
   </si>
   <si>
@@ -610,9 +592,6 @@
   </si>
   <si>
     <t>172.16.14.2</t>
-  </si>
-  <si>
-    <t>Hub VPN BGP</t>
   </si>
   <si>
     <t>Source User Group</t>
@@ -839,9 +818,6 @@
     <t>149,153</t>
   </si>
   <si>
-    <t>802.11ac</t>
-  </si>
-  <si>
     <t>wpa2-only-personal</t>
   </si>
   <si>
@@ -1107,13 +1083,97 @@
   </si>
   <si>
     <t>Monitor Ports</t>
+  </si>
+  <si>
+    <t>FortiLink Trunk Interfaces</t>
+  </si>
+  <si>
+    <t>FortiLink Stack IP</t>
+  </si>
+  <si>
+    <t>Captive Portal URL</t>
+  </si>
+  <si>
+    <t>Captive User Groups</t>
+  </si>
+  <si>
+    <t>Captive Exempt CIDRs</t>
+  </si>
+  <si>
+    <t>Radius Server IP</t>
+  </si>
+  <si>
+    <t>Radius COA</t>
+  </si>
+  <si>
+    <t>Timeout</t>
+  </si>
+  <si>
+    <t>Source IP</t>
+  </si>
+  <si>
+    <t>UL Speed kbps</t>
+  </si>
+  <si>
+    <t>DL Speed kbps</t>
+  </si>
+  <si>
+    <t>Update Source</t>
+  </si>
+  <si>
+    <t>Graceful Restart</t>
+  </si>
+  <si>
+    <t>Soft Reconfiguration</t>
+  </si>
+  <si>
+    <t>Match AS Path</t>
+  </si>
+  <si>
+    <t>Set Local Preference</t>
+  </si>
+  <si>
+    <t>Match IP Address</t>
+  </si>
+  <si>
+    <t>AS-PATH-LIST</t>
+  </si>
+  <si>
+    <t>Rule</t>
+  </si>
+  <si>
+    <t>RegExp</t>
+  </si>
+  <si>
+    <t>^$</t>
+  </si>
+  <si>
+    <t>10DOT</t>
+  </si>
+  <si>
+    <t>10.0.0.0/8</t>
+  </si>
+  <si>
+    <t>192DOT</t>
+  </si>
+  <si>
+    <t>192.168.111.0/24</t>
+  </si>
+  <si>
+    <t>20MHz</t>
+  </si>
+  <si>
+    <t>Radius Server</t>
+  </si>
+  <si>
+    <t>Remote Interface IP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1174,8 +1234,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1199,8 +1267,14 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8EA9DB"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1245,12 +1319,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1304,6 +1391,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1634,24 +1723,24 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C2">
         <v>47.720389102944601</v>
@@ -1662,10 +1751,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="B3" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C3">
         <v>47.560399462232603</v>
@@ -1685,8 +1774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2705E79F-7DC8-FF4A-98E7-620EB1331426}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1705,72 +1794,66 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C2" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" t="s">
-        <v>247</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>81</v>
+        <v>353</v>
       </c>
       <c r="I2" t="s">
-        <v>81</v>
+        <v>353</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1780,236 +1863,288 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9556856-EACE-8743-BD72-1C38217AD5CD}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>333</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>335</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>336</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:V12"/>
+  <dimension ref="A1:Y12"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="16" style="3"/>
-    <col min="10" max="10" width="19.6640625" customWidth="1"/>
-    <col min="12" max="12" width="17.5" customWidth="1"/>
-    <col min="14" max="14" width="19.83203125" customWidth="1"/>
-    <col min="16" max="16" width="17.83203125" customWidth="1"/>
+    <col min="5" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="16" style="3"/>
+    <col min="11" max="11" width="19.6640625" customWidth="1"/>
+    <col min="13" max="13" width="17.5" customWidth="1"/>
+    <col min="15" max="15" width="19.83203125" customWidth="1"/>
+    <col min="17" max="17" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G2" t="s">
+        <v>264</v>
+      </c>
+      <c r="H2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2">
+        <v>14</v>
+      </c>
+      <c r="M2">
+        <v>86400</v>
+      </c>
+      <c r="N2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2">
+        <v>14</v>
+      </c>
+      <c r="Q2">
+        <v>86400</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s">
+        <v>63</v>
+      </c>
+      <c r="U2" t="s">
+        <v>63</v>
+      </c>
+      <c r="V2" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="W2">
+        <v>15000</v>
+      </c>
+      <c r="X2">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G3" t="s">
+        <v>265</v>
+      </c>
+      <c r="H3" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3">
+        <v>14</v>
+      </c>
+      <c r="M3">
+        <v>86400</v>
+      </c>
+      <c r="N3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3">
+        <v>14</v>
+      </c>
+      <c r="Q3">
+        <v>86400</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>2</v>
+      </c>
+      <c r="T3" t="s">
         <v>63</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="T1" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="U1" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="V1" s="9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F2" t="s">
-        <v>273</v>
-      </c>
-      <c r="G2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2">
-        <v>14</v>
-      </c>
-      <c r="L2">
-        <v>86400</v>
-      </c>
-      <c r="M2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2">
-        <v>14</v>
-      </c>
-      <c r="P2">
-        <v>86400</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2" t="s">
-        <v>65</v>
-      </c>
-      <c r="T2" t="s">
-        <v>65</v>
-      </c>
-      <c r="U2" t="s">
-        <v>132</v>
-      </c>
-      <c r="V2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D3" t="s">
-        <v>169</v>
-      </c>
-      <c r="F3" t="s">
-        <v>274</v>
-      </c>
-      <c r="G3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3">
-        <v>14</v>
-      </c>
-      <c r="L3">
-        <v>86400</v>
-      </c>
-      <c r="M3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3">
-        <v>14</v>
-      </c>
-      <c r="P3">
-        <v>86400</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>2</v>
-      </c>
-      <c r="S3" t="s">
-        <v>65</v>
-      </c>
-      <c r="T3" t="s">
-        <v>65</v>
-      </c>
       <c r="U3" t="s">
-        <v>132</v>
+        <v>63</v>
       </c>
       <c r="V3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="F4"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="F5"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="F6"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+      <c r="W3">
+        <v>25000</v>
+      </c>
+      <c r="X3">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="G4"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="G5"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="G6"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
-      <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
@@ -2025,11 +2160,9 @@
       <c r="S7" s="13"/>
       <c r="T7" s="13"/>
       <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="F8"/>
-      <c r="I8" s="13"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="G8"/>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
@@ -2042,19 +2175,22 @@
       <c r="S8" s="13"/>
       <c r="T8" s="13"/>
       <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="F9"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="F10"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="F11"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="F12"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="G9"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="G10"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="G11"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="G12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2063,7 +2199,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65038F42-A54F-7449-9590-5D0BD8E925CC}">
   <dimension ref="A1:G68"/>
   <sheetViews>
@@ -2082,79 +2218,79 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D2" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D3" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -2163,30 +2299,30 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="E5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2536,7 +2672,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1368213A-B9B3-B347-8D15-C233C33BAFF3}">
   <dimension ref="A1:K5"/>
   <sheetViews>
@@ -2560,54 +2696,54 @@
   <sheetData>
     <row r="1" spans="1:11" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B2" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E2" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="F2">
         <v>250</v>
@@ -2630,19 +2766,19 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B3" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E3" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="F3">
         <v>250</v>
@@ -2665,19 +2801,19 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B4" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C4" s="7">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F4">
         <v>250</v>
@@ -2700,19 +2836,19 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B5" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C5" s="7">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E5" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F5">
         <v>250</v>
@@ -2739,7 +2875,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73EFE558-A52B-E149-8046-B606A6E28FCE}">
   <dimension ref="A1:M41"/>
   <sheetViews>
@@ -2760,81 +2896,81 @@
   <sheetData>
     <row r="1" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I2" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="K2" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="L2" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="M2" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -2960,12 +3096,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DC81D2-39A7-4C7A-9106-8B812FE69FFE}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2977,69 +3113,78 @@
     <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
     <col min="7" max="8" width="25" customWidth="1"/>
-    <col min="9" max="12" width="20" customWidth="1"/>
+    <col min="9" max="15" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B2" s="3">
         <v>65000</v>
       </c>
       <c r="C2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E2" s="3">
         <v>65000</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="13" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="J2" s="3">
         <v>10</v>
@@ -3047,32 +3192,35 @@
       <c r="K2" s="3">
         <v>2</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M2" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B3" s="3">
         <v>65000</v>
       </c>
       <c r="C3" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E3" s="3">
         <v>65000</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="13" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="J3" s="3">
         <v>10</v>
@@ -3080,85 +3228,66 @@
       <c r="K3" s="3">
         <v>2</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D4"/>
-      <c r="E4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
       <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D5"/>
-      <c r="E5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
       <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D6"/>
-      <c r="E6" s="3"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="3"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D7"/>
-      <c r="E7" s="3"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="3"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D8"/>
-      <c r="E8" s="3"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D9"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D10"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D11"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D12"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D13"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D14"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D15"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16"/>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.2">
@@ -3187,21 +3316,6 @@
     </row>
     <row r="25" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D25"/>
-    </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D26"/>
-    </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D27"/>
-    </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D28"/>
-    </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D29"/>
-    </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3209,12 +3323,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77DE6441-C5CA-154B-A90D-CBC65B0EA279}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3225,63 +3339,72 @@
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
     <col min="6" max="7" width="25" customWidth="1"/>
-    <col min="8" max="11" width="20" customWidth="1"/>
+    <col min="8" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D2" s="3">
         <v>65000</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F2" s="13"/>
       <c r="H2" s="3" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="I2" s="3">
         <v>10</v>
@@ -3289,29 +3412,32 @@
       <c r="J2" s="3">
         <v>2</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C3" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D3" s="3">
         <v>65000</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="F3" s="13"/>
       <c r="H3" s="3" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="I3" s="3">
         <v>10</v>
@@ -3319,63 +3445,89 @@
       <c r="J3" s="3">
         <v>2</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K3" s="3"/>
+      <c r="L3" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" s="3"/>
       <c r="D4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B5" s="3"/>
       <c r="D5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="3"/>
       <c r="D6" s="3"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B7" s="3"/>
       <c r="D7" s="3"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" s="3"/>
       <c r="D8" s="3"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B9" s="3"/>
       <c r="D9" s="3"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3383,12 +3535,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD920833-D5B0-9142-A231-FCBFD16C6090}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3"/>
+      <selection activeCell="F2" sqref="F2:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3398,46 +3550,55 @@
     <col min="4" max="4" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B3" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C5" s="18"/>
     </row>
   </sheetData>
@@ -3447,12 +3608,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B50F2F4D-94E4-4F42-BC06-BF2623658A97}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3463,75 +3624,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C2" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D2" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C3" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93657819-A02C-BF41-A385-88E52B2B82CE}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B2" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3544,7 +3674,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3559,116 +3689,116 @@
   <sheetData>
     <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B2" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="D2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B3" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E3" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B4" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="C4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D4" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="E4" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="F4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="B5" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="C5" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D5" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E5" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B6" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="C6" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="D6" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="E6" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="F6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -3678,6 +3808,154 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D2E9C8-AD74-554F-809A-AD0B2D5C2327}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" customWidth="1"/>
+    <col min="3" max="4" width="20.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0FB8944-8A0F-3B4A-BBE7-0F4FFA00D9D8}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93657819-A02C-BF41-A385-88E52B2B82CE}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C5C7D2-AB62-4F42-8BD4-A1A5FD01CC53}">
   <dimension ref="A1:U4"/>
   <sheetViews>
@@ -3696,211 +3974,211 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="H1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="L1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>35</v>
-      </c>
       <c r="M1" s="10" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="Q1" s="10" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="R1" s="10" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="S1" s="10" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="T1" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="U1" s="10" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="D2" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
       </c>
       <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>196</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="K2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L2" t="s">
+        <v>259</v>
+      </c>
+      <c r="N2" t="s">
         <v>27</v>
       </c>
-      <c r="I2" t="s">
-        <v>204</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="K2" t="s">
-        <v>86</v>
-      </c>
-      <c r="L2" t="s">
-        <v>268</v>
-      </c>
-      <c r="N2" t="s">
-        <v>28</v>
-      </c>
       <c r="U2" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="D3" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="E3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F3" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="G3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>263</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="K3" t="s">
+        <v>82</v>
+      </c>
+      <c r="L3" t="s">
+        <v>223</v>
+      </c>
+      <c r="M3" t="s">
+        <v>262</v>
+      </c>
+      <c r="N3" t="s">
         <v>27</v>
       </c>
-      <c r="I3" t="s">
-        <v>272</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="K3" t="s">
-        <v>86</v>
-      </c>
-      <c r="L3" t="s">
-        <v>231</v>
-      </c>
-      <c r="M3" t="s">
-        <v>271</v>
-      </c>
-      <c r="N3" t="s">
-        <v>28</v>
-      </c>
       <c r="O3" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="U3" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="D4" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F4" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="G4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>263</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="K4" t="s">
+        <v>82</v>
+      </c>
+      <c r="L4" t="s">
+        <v>223</v>
+      </c>
+      <c r="M4" t="s">
+        <v>262</v>
+      </c>
+      <c r="N4" t="s">
         <v>27</v>
       </c>
-      <c r="I4" t="s">
-        <v>272</v>
-      </c>
-      <c r="J4" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="K4" t="s">
-        <v>86</v>
-      </c>
-      <c r="L4" t="s">
-        <v>231</v>
-      </c>
-      <c r="M4" t="s">
-        <v>271</v>
-      </c>
-      <c r="N4" t="s">
-        <v>28</v>
-      </c>
       <c r="O4" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="U4" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -3914,7 +4192,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F4943DD-EF0B-8649-897A-16FAD2D12F60}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -3930,26 +4208,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="224" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -3957,20 +4235,20 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>5</v>
@@ -3978,10 +4256,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -3989,7 +4267,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{507B5BA5-F1C1-234F-BB0D-5A393EB80F06}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -4005,34 +4283,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -4042,10 +4320,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView topLeftCell="K1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4068,93 +4346,96 @@
     <col min="16" max="16" width="15.33203125" customWidth="1"/>
     <col min="17" max="17" width="16.83203125" customWidth="1"/>
     <col min="18" max="18" width="14.6640625" customWidth="1"/>
-    <col min="21" max="21" width="25.83203125" customWidth="1"/>
-    <col min="22" max="22" width="18.5" customWidth="1"/>
+    <col min="19" max="20" width="25.83203125" customWidth="1"/>
+    <col min="21" max="21" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I1" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="M1" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="M1" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>94</v>
-      </c>
       <c r="Q1" s="9" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="R1" s="9" t="s">
-        <v>105</v>
+        <v>101</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>329</v>
       </c>
       <c r="U1" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="V1" s="9" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D2" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="E2" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="I2">
         <v>250000</v>
@@ -4163,7 +4444,7 @@
         <v>500000</v>
       </c>
       <c r="K2" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="M2">
         <v>35000</v>
@@ -4171,37 +4452,37 @@
       <c r="N2">
         <v>75000</v>
       </c>
+      <c r="S2" t="s">
+        <v>231</v>
+      </c>
       <c r="U2" t="s">
-        <v>239</v>
-      </c>
-      <c r="V2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C3" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D3" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="E3" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H3" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="I3">
         <v>250000</v>
@@ -4210,10 +4491,10 @@
         <v>500000</v>
       </c>
       <c r="K3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="L3" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="M3">
         <v>35000</v>
@@ -4222,10 +4503,10 @@
         <v>75000</v>
       </c>
       <c r="O3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P3" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="Q3">
         <v>10000</v>
@@ -4234,10 +4515,7 @@
         <v>15000</v>
       </c>
       <c r="U3" t="s">
-        <v>156</v>
-      </c>
-      <c r="V3" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -4266,51 +4544,51 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B2" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="C2" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="D2" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G2" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="H2">
         <v>100</v>
@@ -4342,19 +4620,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -4381,56 +4659,56 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B2" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="C2" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="D2" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="F2" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B3" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="D3" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="F3" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -4574,7 +4852,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4592,18 +4870,18 @@
     <col min="11" max="11" width="14.6640625" customWidth="1"/>
     <col min="12" max="12" width="17.33203125" customWidth="1"/>
     <col min="13" max="13" width="10.33203125" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" customWidth="1"/>
+    <col min="14" max="14" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="36" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="D1" s="20" t="s">
         <v>0</v>
@@ -4612,54 +4890,54 @@
         <v>1</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="I1" s="20" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K1" s="20" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="L1" s="20" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="M1" s="20" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="N1" s="20" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B2" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C2" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H2" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="I2" t="s">
         <v>7</v>
@@ -4668,36 +4946,36 @@
         <v>7</v>
       </c>
       <c r="M2" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="N2" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B3" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="C3" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D3">
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G3" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="H3" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="I3" t="s">
         <v>7</v>
@@ -4706,36 +4984,36 @@
         <v>7</v>
       </c>
       <c r="M3" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="N3" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B4" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C4" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D4">
         <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G4" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="H4" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="I4" t="s">
         <v>7</v>
@@ -4744,36 +5022,36 @@
         <v>7</v>
       </c>
       <c r="M4" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="N4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B5" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C5" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D5">
         <v>98</v>
       </c>
       <c r="E5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G5" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="H5" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="I5" t="s">
         <v>7</v>
@@ -4782,36 +5060,36 @@
         <v>7</v>
       </c>
       <c r="M5" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="N5" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D6">
         <v>99</v>
       </c>
       <c r="E6" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="F6" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="G6" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="H6" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="I6" t="s">
         <v>7</v>
@@ -4820,36 +5098,36 @@
         <v>7</v>
       </c>
       <c r="M6" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="N6" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B7" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="C7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D7">
         <v>222</v>
       </c>
       <c r="E7" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="F7" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="G7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="H7" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="I7" t="s">
         <v>7</v>
@@ -4858,10 +5136,10 @@
         <v>7</v>
       </c>
       <c r="M7" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="N7" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -5000,1391 +5278,1391 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="L1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="N1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="O1" s="2" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B2" s="11">
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="11" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M2" s="25" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="N2" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B3" s="11">
         <v>2</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E3" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="N3" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B4" s="11">
         <v>3</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="E4" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M4" s="25" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="N4" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O4" s="11"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B5" s="11">
         <v>4</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="N5" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O5" s="11"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B6" s="11">
         <v>5</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="N6" s="25"/>
       <c r="O6" s="11" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B7" s="11">
         <v>6</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="N7" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B8" s="11">
         <v>7</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="11" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="N8" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O8" s="11" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B9" s="11">
         <v>8</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="N9" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O9" s="11" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B10" s="7">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="F10" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G10" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="H10" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="I10" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="J10" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="K10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M10" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="N10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B11" s="7">
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="F11" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G11" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="H11" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="I11" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="J11" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="K11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M11" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="N11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B12" s="7">
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="F12" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G12" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="H12" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="I12" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="J12" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="K12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M12" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="N12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B13" s="7">
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="F13" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G13" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="H13" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="I13" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="J13" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="K13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M13" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="N13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B14" s="7">
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="F14" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G14" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="H14" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="I14" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="J14" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="K14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M14" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="N14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B15" s="7">
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="F15" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G15" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="H15" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="I15" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="J15" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="K15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M15" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="N15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B16" s="7">
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="F16" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G16" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="H16" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="I16" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="J16" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="K16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M16" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="N16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B17" s="7">
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="F17" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G17" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="H17" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="I17" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="J17" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="K17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M17" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="N17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B18" s="7">
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="F18" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G18" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="H18" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="I18" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="J18" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="K18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M18" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="N18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B19" s="7">
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="F19" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G19" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="H19" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="I19" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="J19" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="K19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M19" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="N19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B20" s="7">
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D20" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="F20" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G20" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="H20" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="I20" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="J20" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="K20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M20" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="N20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B21" s="7">
         <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="F21" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G21" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="H21" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="I21" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="J21" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="K21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M21" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="N21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B22" s="7">
         <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D22" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="F22" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G22" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="H22" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="I22" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="J22" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="K22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M22" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="N22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B23" s="7">
         <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D23" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="F23" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G23" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="H23" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="I23" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="J23" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="K23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M23" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="N23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B24" s="7">
         <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="F24" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G24" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="H24" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="I24" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="J24" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="K24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M24" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="N24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B25" s="7">
         <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D25" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="F25" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G25" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="H25" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="I25" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="J25" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="K25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M25" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="N25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B26" s="7">
         <v>17</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="F26" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G26" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="H26" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="I26" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="J26" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="K26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M26" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="N26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B27" s="7">
         <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D27" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="F27" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G27" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="H27" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="I27" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="J27" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="K27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M27" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="N27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B28" s="7">
         <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D28" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="F28" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G28" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="H28" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="I28" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="J28" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="K28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M28" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="N28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B29" s="7">
         <v>20</v>
       </c>
       <c r="C29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D29" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="F29" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G29" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="H29" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="I29" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="J29" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="K29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M29" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="N29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B30" s="7">
         <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D30" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="F30" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G30" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="H30" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="I30" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="J30" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="K30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M30" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="N30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B31" s="7">
         <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D31" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="F31" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G31" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="H31" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="I31" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="J31" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="K31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M31" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="N31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B32" s="7">
         <v>23</v>
       </c>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D32" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="F32" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G32" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="H32" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="I32" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="J32" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="K32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M32" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="N32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B33" s="7">
         <v>24</v>
       </c>
       <c r="C33" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E33" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F33" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G33" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="H33" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="I33" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="J33" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="K33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M33" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="N33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -6396,10 +6674,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6412,11 +6690,14 @@
     <col min="6" max="7" width="14.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.33203125" customWidth="1"/>
+    <col min="10" max="10" width="57.1640625" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" customWidth="1"/>
+    <col min="12" max="12" width="35.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>8</v>
@@ -6431,137 +6712,146 @@
         <v>11</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E2" t="s">
-        <v>248</v>
-      </c>
-      <c r="F2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="E3" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H3">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E4" t="s">
+        <v>239</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E5" t="s">
+        <v>239</v>
+      </c>
+      <c r="F5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" t="s">
-        <v>231</v>
-      </c>
-      <c r="E5" t="s">
-        <v>248</v>
-      </c>
-      <c r="F5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="E6" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H6">
         <v>201</v>

--- a/roles/fortigate.ztp/files/spreadsheets/Ansible_ZTP_Local_Simple_Topology.xlsx
+++ b/roles/fortigate.ztp/files/spreadsheets/Ansible_ZTP_Local_Simple_Topology.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fortinet-my.sharepoint.com/personal/lweighall_fortinet-us_com/Documents/Ansible ZTP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1504" documentId="8_{76316668-8358-D540-AC45-49EE0DC0AD63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E982E764-3392-3443-8E60-7F64BADFED6A}"/>
+  <xr:revisionPtr revIDLastSave="1516" documentId="8_{76316668-8358-D540-AC45-49EE0DC0AD63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{FAB6327F-7D99-B141-A112-2922B117B76C}"/>
   <bookViews>
-    <workbookView xWindow="32160" yWindow="7000" windowWidth="38420" windowHeight="18760" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25600" yWindow="2180" windowWidth="38420" windowHeight="18760" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Locations" sheetId="18" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="360">
   <si>
     <t>VLAN ID</t>
   </si>
@@ -1168,12 +1168,24 @@
   <si>
     <t>Remote Interface IP</t>
   </si>
+  <si>
+    <t>FortiLink Split Interface</t>
+  </si>
+  <si>
+    <t>FortiLink Auto Authorize</t>
+  </si>
+  <si>
+    <t>port8</t>
+  </si>
+  <si>
+    <t>FortiLink Interfaces From VSW</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1235,6 +1247,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1243,7 +1262,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1265,6 +1284,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
     <fill>
@@ -1333,11 +1357,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1391,11 +1416,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="2" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1774,8 +1801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2705E79F-7DC8-FF4A-98E7-620EB1331426}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1792,7 +1819,7 @@
     <col min="11" max="11" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>91</v>
       </c>
@@ -1808,10 +1835,10 @@
       <c r="E1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="29" t="s">
         <v>71</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -4320,10 +4347,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:X3"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4346,11 +4373,11 @@
     <col min="16" max="16" width="15.33203125" customWidth="1"/>
     <col min="17" max="17" width="16.83203125" customWidth="1"/>
     <col min="18" max="18" width="14.6640625" customWidth="1"/>
-    <col min="19" max="20" width="25.83203125" customWidth="1"/>
-    <col min="21" max="21" width="18.5" customWidth="1"/>
+    <col min="19" max="23" width="25.83203125" customWidth="1"/>
+    <col min="24" max="24" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>124</v>
       </c>
@@ -4409,13 +4436,22 @@
         <v>328</v>
       </c>
       <c r="T1" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="U1" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="V1" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="X1" s="9" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>150</v>
       </c>
@@ -4455,11 +4491,20 @@
       <c r="S2" t="s">
         <v>231</v>
       </c>
-      <c r="U2" t="s">
+      <c r="T2" t="s">
+        <v>7</v>
+      </c>
+      <c r="V2" t="s">
+        <v>223</v>
+      </c>
+      <c r="W2" t="s">
+        <v>223</v>
+      </c>
+      <c r="X2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>207</v>
       </c>
@@ -4514,7 +4559,10 @@
       <c r="R3">
         <v>15000</v>
       </c>
-      <c r="U3" t="s">
+      <c r="S3" t="s">
+        <v>358</v>
+      </c>
+      <c r="X3" t="s">
         <v>182</v>
       </c>
     </row>

--- a/roles/fortigate.ztp/files/spreadsheets/Ansible_ZTP_Local_Simple_Topology.xlsx
+++ b/roles/fortigate.ztp/files/spreadsheets/Ansible_ZTP_Local_Simple_Topology.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fortinet-my.sharepoint.com/personal/lweighall_fortinet-us_com/Documents/Ansible ZTP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1516" documentId="8_{76316668-8358-D540-AC45-49EE0DC0AD63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{FAB6327F-7D99-B141-A112-2922B117B76C}"/>
+  <xr:revisionPtr revIDLastSave="1518" documentId="8_{76316668-8358-D540-AC45-49EE0DC0AD63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7E43944B-114A-9846-B139-D49FC6E59358}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="2180" windowWidth="38420" windowHeight="18760" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="359">
   <si>
     <t>VLAN ID</t>
   </si>
@@ -1065,9 +1065,6 @@
   </si>
   <si>
     <t>a-p</t>
-  </si>
-  <si>
-    <t>NA_64</t>
   </si>
   <si>
     <t>VOIP</t>
@@ -1871,10 +1868,10 @@
         <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J2" s="19" t="s">
         <v>238</v>
@@ -1910,16 +1907,16 @@
         <v>29</v>
       </c>
       <c r="C1" s="28" t="s">
+        <v>332</v>
+      </c>
+      <c r="D1" s="28" t="s">
         <v>333</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="E1" s="28" t="s">
         <v>334</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="F1" s="28" t="s">
         <v>335</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -1962,7 +1959,7 @@
         <v>131</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>133</v>
@@ -2013,10 +2010,10 @@
         <v>267</v>
       </c>
       <c r="W1" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="X1" s="9" t="s">
         <v>337</v>
-      </c>
-      <c r="X1" s="9" t="s">
-        <v>338</v>
       </c>
       <c r="Y1" s="9" t="s">
         <v>130</v>
@@ -3178,13 +3175,13 @@
         <v>221</v>
       </c>
       <c r="L1" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="M1" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>340</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>341</v>
       </c>
       <c r="O1" s="9" t="s">
         <v>130</v>
@@ -3401,13 +3398,13 @@
         <v>221</v>
       </c>
       <c r="K1" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="L1" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>340</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>341</v>
       </c>
       <c r="N1" s="9" t="s">
         <v>130</v>
@@ -3594,13 +3591,13 @@
         <v>137</v>
       </c>
       <c r="F1" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>343</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -3857,10 +3854,10 @@
         <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>346</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>347</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>33</v>
@@ -3871,13 +3868,13 @@
         <v>150</v>
       </c>
       <c r="B2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E2" t="s">
         <v>180</v>
@@ -3912,7 +3909,7 @@
         <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>135</v>
@@ -3923,13 +3920,13 @@
         <v>150</v>
       </c>
       <c r="B2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3937,13 +3934,13 @@
         <v>150</v>
       </c>
       <c r="B3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -4349,8 +4346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:T1048576"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4433,19 +4430,19 @@
         <v>101</v>
       </c>
       <c r="S1" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="U1" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="T1" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="U1" s="9" t="s">
-        <v>329</v>
-      </c>
       <c r="V1" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="W1" s="9" t="s">
         <v>356</v>
-      </c>
-      <c r="W1" s="9" t="s">
-        <v>357</v>
       </c>
       <c r="X1" s="9" t="s">
         <v>204</v>
@@ -4459,7 +4456,7 @@
         <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>322</v>
+        <v>145</v>
       </c>
       <c r="D2" t="s">
         <v>310</v>
@@ -4512,7 +4509,7 @@
         <v>145</v>
       </c>
       <c r="C3" t="s">
-        <v>322</v>
+        <v>145</v>
       </c>
       <c r="D3" t="s">
         <v>306</v>
@@ -4560,7 +4557,7 @@
         <v>15000</v>
       </c>
       <c r="S3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="X3" t="s">
         <v>182</v>
@@ -4601,7 +4598,7 @@
         <v>317</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>320</v>
@@ -4624,10 +4621,10 @@
         <v>321</v>
       </c>
       <c r="C2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D2" t="s">
         <v>325</v>
-      </c>
-      <c r="D2" t="s">
-        <v>326</v>
       </c>
       <c r="E2" t="s">
         <v>62</v>
@@ -4997,7 +4994,7 @@
         <v>223</v>
       </c>
       <c r="N2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -5134,7 +5131,7 @@
         <v>257</v>
       </c>
       <c r="G6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H6" t="s">
         <v>236</v>
@@ -6763,7 +6760,7 @@
         <v>240</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>241</v>
@@ -6772,13 +6769,13 @@
         <v>245</v>
       </c>
       <c r="J1" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="K1" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>331</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">

--- a/roles/fortigate.ztp/files/spreadsheets/Ansible_ZTP_Local_Simple_Topology.xlsx
+++ b/roles/fortigate.ztp/files/spreadsheets/Ansible_ZTP_Local_Simple_Topology.xlsx
@@ -1039,7 +1039,7 @@
     <t xml:space="preserve">SSL Inspection</t>
   </si>
   <si>
-    <t xml:space="preserve">WIFI_TO_VOICE</t>
+    <t xml:space="preserve">WIRELESS_TO_MGMT</t>
   </si>
   <si>
     <t xml:space="preserve">always</t>
@@ -1066,7 +1066,7 @@
     <t xml:space="preserve">test123</t>
   </si>
   <si>
-    <t xml:space="preserve">IPT_TO_SDWAN</t>
+    <t xml:space="preserve">MGMT_TO_SDWAN</t>
   </si>
   <si>
     <t xml:space="preserve">CIO_DST</t>
@@ -1550,7 +1550,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3376,7 +3376,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3697,7 +3697,7 @@
   <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.8359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3785,10 +3785,10 @@
         <v>331</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>113</v>
@@ -3829,7 +3829,7 @@
         <v>336</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>241</v>
@@ -3879,7 +3879,7 @@
         <v>340</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>241</v>
@@ -4087,7 +4087,7 @@
   <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4241,7 +4241,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>27</v>
       </c>
@@ -4606,7 +4606,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
+      <selection pane="topLeft" activeCell="O25" activeCellId="0" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/roles/fortigate.ztp/files/spreadsheets/Ansible_ZTP_Local_Simple_Topology.xlsx
+++ b/roles/fortigate.ztp/files/spreadsheets/Ansible_ZTP_Local_Simple_Topology.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="359">
   <si>
     <t xml:space="preserve">Location Name</t>
   </si>
@@ -212,9 +212,6 @@
   </si>
   <si>
     <t xml:space="preserve">root</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA_64</t>
   </si>
   <si>
     <t xml:space="preserve">internal5</t>
@@ -1351,7 +1348,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1388,10 +1385,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1402,10 +1395,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1553,7 +1542,7 @@
       <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="57.33"/>
@@ -1643,34 +1632,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1678,28 +1667,28 @@
         <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="I2" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="J2" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="J2" s="15" t="s">
+      <c r="K2" s="13" t="s">
         <v>200</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -1724,29 +1713,29 @@
       <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.33"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="15" t="s">
         <v>205</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -1771,7 +1760,7 @@
       <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.0078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="18"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="7" width="16"/>
@@ -1786,76 +1775,76 @@
         <v>31</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="W1" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="V1" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>228</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1863,28 +1852,28 @@
         <v>16</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>232</v>
-      </c>
       <c r="G2" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J2" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="K2" s="0" t="s">
         <v>233</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>234</v>
       </c>
       <c r="L2" s="0" t="n">
         <v>14</v>
@@ -1893,10 +1882,10 @@
         <v>86400</v>
       </c>
       <c r="N2" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>233</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>234</v>
       </c>
       <c r="P2" s="0" t="n">
         <v>14</v>
@@ -1911,13 +1900,13 @@
         <v>1</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="U2" s="0" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="V2" s="0" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="W2" s="0" t="n">
         <v>15000</v>
@@ -1931,28 +1920,28 @@
         <v>16</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>237</v>
-      </c>
       <c r="G3" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J3" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="K3" s="0" t="s">
         <v>233</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>234</v>
       </c>
       <c r="L3" s="0" t="n">
         <v>14</v>
@@ -1961,10 +1950,10 @@
         <v>86400</v>
       </c>
       <c r="N3" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>233</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>234</v>
       </c>
       <c r="P3" s="0" t="n">
         <v>14</v>
@@ -1979,13 +1968,13 @@
         <v>2</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="U3" s="0" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="V3" s="0" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="W3" s="0" t="n">
         <v>25000</v>
@@ -2067,26 +2056,26 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="17" t="s">
         <v>239</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2097,16 +2086,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2117,16 +2106,16 @@
         <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2137,19 +2126,19 @@
         <v>3</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>243</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>244</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2160,19 +2149,19 @@
         <v>4</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2516,7 +2505,7 @@
   <sheetFormatPr defaultColWidth="8.8359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="11" width="21.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="10" width="21.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.33"/>
@@ -2527,39 +2516,39 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="15.66"/>
   </cols>
   <sheetData>
-    <row r="1" s="23" customFormat="true" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="20" t="s">
+    <row r="1" s="21" customFormat="true" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="D1" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="G1" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="H1" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="I1" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="J1" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="K1" s="20" t="s">
         <v>255</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2567,16 +2556,16 @@
         <v>16</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>258</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>259</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>250</v>
@@ -2602,16 +2591,16 @@
         <v>16</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>260</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>261</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>250</v>
@@ -2637,16 +2626,16 @@
         <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="C4" s="11" t="n">
+        <v>229</v>
+      </c>
+      <c r="C4" s="10" t="n">
         <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>250</v>
@@ -2672,16 +2661,16 @@
         <v>16</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="C5" s="11" t="n">
+        <v>235</v>
+      </c>
+      <c r="C5" s="10" t="n">
         <v>4</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>250</v>
@@ -2724,56 +2713,56 @@
       <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="24.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="23.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="11" width="21.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="10" width="21.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.33"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="D1" s="18" t="s">
+      <c r="B1" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="J1" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="K1" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="J1" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="K1" s="19" t="s">
+      <c r="L1" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="M1" s="17" t="s">
         <v>271</v>
-      </c>
-      <c r="M1" s="19" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2784,34 +2773,34 @@
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="I2" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>275</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>258</v>
+      <c r="J2" s="10" t="s">
+        <v>257</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -2849,50 +2838,50 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>288</v>
-      </c>
       <c r="O1" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2903,20 +2892,20 @@
         <v>65000</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E2" s="7" t="n">
         <v>65000</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J2" s="7" t="n">
         <v>10</v>
@@ -2925,10 +2914,10 @@
         <v>2</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2939,20 +2928,20 @@
         <v>65000</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E3" s="7" t="n">
         <v>65000</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J3" s="7" t="n">
         <v>10</v>
@@ -2962,26 +2951,26 @@
       </c>
       <c r="L3" s="7"/>
       <c r="M3" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
@@ -3021,47 +3010,47 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>290</v>
-      </c>
       <c r="D1" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>288</v>
-      </c>
       <c r="N1" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3069,20 +3058,20 @@
         <v>16</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="D2" s="7" t="n">
         <v>65000</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F2" s="8"/>
       <c r="H2" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I2" s="7" t="n">
         <v>10</v>
@@ -3091,10 +3080,10 @@
         <v>2</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3102,20 +3091,20 @@
         <v>16</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>293</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>294</v>
       </c>
       <c r="D3" s="7" t="n">
         <v>65000</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F3" s="8"/>
       <c r="H3" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I3" s="7" t="n">
         <v>10</v>
@@ -3125,10 +3114,10 @@
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N3" s="7"/>
     </row>
@@ -3157,9 +3146,9 @@
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="7"/>
       <c r="D6" s="7"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
@@ -3168,9 +3157,9 @@
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="7"/>
       <c r="D7" s="7"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
@@ -3179,9 +3168,9 @@
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="7"/>
       <c r="D8" s="7"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
@@ -3190,18 +3179,18 @@
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="7"/>
       <c r="D9" s="7"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
@@ -3237,29 +3226,29 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>202</v>
+      <c r="B1" s="16" t="s">
+        <v>201</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>299</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3267,10 +3256,10 @@
         <v>16</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3278,14 +3267,14 @@
         <v>16</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="25"/>
+      <c r="C5" s="23"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3316,17 +3305,17 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>202</v>
+      <c r="B1" s="16" t="s">
+        <v>201</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>301</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3334,13 +3323,13 @@
         <v>16</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C2" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="D2" s="0" t="s">
         <v>303</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3348,13 +3337,13 @@
         <v>16</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -3379,7 +3368,7 @@
       <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.17"/>
@@ -3537,16 +3526,16 @@
         <v>31</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>307</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3554,16 +3543,16 @@
         <v>16</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -3601,13 +3590,13 @@
         <v>31</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3615,13 +3604,13 @@
         <v>16</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3629,13 +3618,13 @@
         <v>16</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -3663,11 +3652,11 @@
   <sheetFormatPr defaultColWidth="16.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>314</v>
+      <c r="B1" s="16" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3675,7 +3664,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -3711,211 +3700,211 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>329</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>331</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="H2" s="0" t="s">
+      <c r="I2" s="0" t="s">
         <v>332</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="J2" s="24" t="s">
         <v>333</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="K2" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="U2" s="0" t="s">
         <v>334</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="U2" s="0" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="I3" s="0" t="s">
         <v>336</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>332</v>
-      </c>
-      <c r="I3" s="0" t="s">
+      <c r="J3" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="M3" s="0" t="s">
         <v>337</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="N3" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="U3" s="0" t="s">
         <v>334</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>338</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>339</v>
-      </c>
-      <c r="U3" s="0" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>340</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>341</v>
-      </c>
       <c r="G4" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I4" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" s="0" t="s">
         <v>337</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="N4" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="U4" s="0" t="s">
         <v>334</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>338</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>339</v>
-      </c>
-      <c r="U4" s="0" t="s">
-        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -3946,7 +3935,7 @@
       <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.84"/>
@@ -3954,58 +3943,58 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="224" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>343</v>
+        <v>340</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>344</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>346</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>348</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="B6" s="25" t="s">
         <v>350</v>
       </c>
-      <c r="B6" s="27" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="26" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="28" t="s">
+      <c r="B7" s="0" t="s">
         <v>352</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -4030,7 +4019,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22"/>
@@ -4038,34 +4027,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="409.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>355</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>357</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>359</v>
+        <v>332</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -4087,7 +4076,7 @@
   <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4196,19 +4185,19 @@
         <v>55</v>
       </c>
       <c r="C2" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>57</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>58</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>2</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>250000</v>
@@ -4217,7 +4206,7 @@
         <v>500000</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M2" s="0" t="n">
         <v>35000</v>
@@ -4226,19 +4215,19 @@
         <v>75000</v>
       </c>
       <c r="S2" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="T2" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="T2" s="0" t="s">
+      <c r="V2" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="V2" s="0" t="s">
+      <c r="W2" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="X2" s="0" t="s">
         <v>63</v>
-      </c>
-      <c r="W2" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="X2" s="0" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4249,22 +4238,22 @@
         <v>55</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>65</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>66</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>67</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>68</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>250000</v>
@@ -4273,10 +4262,10 @@
         <v>500000</v>
       </c>
       <c r="K3" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" s="0" t="s">
         <v>69</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>70</v>
       </c>
       <c r="M3" s="0" t="n">
         <v>35000</v>
@@ -4285,10 +4274,10 @@
         <v>75000</v>
       </c>
       <c r="O3" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="P3" s="0" t="s">
         <v>71</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>72</v>
       </c>
       <c r="Q3" s="0" t="n">
         <v>10000</v>
@@ -4297,10 +4286,10 @@
         <v>15000</v>
       </c>
       <c r="S3" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="X3" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -4325,7 +4314,7 @@
       <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="13.66"/>
@@ -4339,25 +4328,25 @@
         <v>31</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4365,22 +4354,22 @@
         <v>16</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>84</v>
-      </c>
       <c r="F2" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>100</v>
@@ -4408,7 +4397,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.67"/>
@@ -4423,10 +4412,10 @@
         <v>31</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>17</v>
@@ -4469,19 +4458,19 @@
         <v>31</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4489,13 +4478,13 @@
         <v>16</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>93</v>
-      </c>
       <c r="D2" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>36</v>
@@ -4506,13 +4495,13 @@
         <v>27</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>93</v>
-      </c>
       <c r="D3" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>36</v>
@@ -4527,8 +4516,9 @@
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8"/>
     </row>
-    <row r="7" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8"/>
+      <c r="C7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8"/>
@@ -4628,47 +4618,47 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="9" t="s">
         <v>105</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4676,34 +4666,34 @@
         <v>16</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>107</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>108</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="H2" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="I2" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" s="0" t="s">
         <v>111</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4711,37 +4701,37 @@
         <v>16</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>20</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="H3" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="I3" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>117</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4749,37 +4739,37 @@
         <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>30</v>
       </c>
       <c r="E4" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="G4" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="H4" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="N4" s="0" t="s">
         <v>122</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4787,37 +4777,37 @@
         <v>16</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>98</v>
       </c>
       <c r="E5" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>126</v>
-      </c>
       <c r="G5" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H5" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="N5" s="0" t="s">
         <v>117</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4825,37 +4815,37 @@
         <v>16</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>99</v>
       </c>
       <c r="E6" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="G6" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>130</v>
-      </c>
       <c r="H6" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="N6" s="0" t="s">
         <v>117</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4863,37 +4853,37 @@
         <v>16</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>222</v>
       </c>
       <c r="E7" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F7" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="F7" s="0" t="s">
-        <v>133</v>
-      </c>
       <c r="G7" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="H7" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="I7" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="N7" s="0" t="s">
         <v>117</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5023,7 +5013,7 @@
   <sheetFormatPr defaultColWidth="8.8359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="11" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="9.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="31.5"/>
@@ -5038,50 +5028,50 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5092,41 +5082,41 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="N2" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="O2" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5137,43 +5127,43 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="E3" s="0" t="s">
+      <c r="H3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="N3" s="13" t="s">
+      <c r="N3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5184,40 +5174,40 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K4" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>154</v>
+      <c r="N4" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="O4" s="2"/>
     </row>
@@ -5229,38 +5219,38 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K5" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="N5" s="13" t="s">
-        <v>154</v>
+      <c r="N5" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="O5" s="2"/>
     </row>
@@ -5272,39 +5262,39 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="N6" s="13"/>
+        <v>149</v>
+      </c>
+      <c r="N6" s="2"/>
       <c r="O6" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5315,41 +5305,41 @@
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L7" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="N7" s="13" t="s">
+      <c r="O7" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5360,41 +5350,41 @@
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="N8" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="O8" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5405,1025 +5395,1025 @@
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="N9" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="O9" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="11" t="n">
+      <c r="B10" s="10" t="n">
         <v>1</v>
       </c>
       <c r="C10" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>150</v>
-      </c>
       <c r="H10" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="11" t="n">
+      <c r="B11" s="10" t="n">
         <v>2</v>
       </c>
       <c r="C11" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="D11" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>150</v>
-      </c>
       <c r="H11" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="11" t="n">
+      <c r="B12" s="10" t="n">
         <v>3</v>
       </c>
       <c r="C12" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="D12" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>150</v>
-      </c>
       <c r="H12" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="11" t="n">
+      <c r="B13" s="10" t="n">
         <v>4</v>
       </c>
       <c r="C13" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>150</v>
-      </c>
       <c r="H13" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="11" t="n">
+      <c r="B14" s="10" t="n">
         <v>5</v>
       </c>
       <c r="C14" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="D14" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>150</v>
-      </c>
       <c r="H14" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="11" t="n">
+      <c r="B15" s="10" t="n">
         <v>6</v>
       </c>
       <c r="C15" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="D15" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>150</v>
-      </c>
       <c r="H15" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="11" t="n">
+      <c r="B16" s="10" t="n">
         <v>7</v>
       </c>
       <c r="C16" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="D16" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>150</v>
-      </c>
       <c r="H16" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="11" t="n">
+      <c r="B17" s="10" t="n">
         <v>8</v>
       </c>
       <c r="C17" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>150</v>
-      </c>
       <c r="H17" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="11" t="n">
+      <c r="B18" s="10" t="n">
         <v>9</v>
       </c>
       <c r="C18" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="D18" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>150</v>
-      </c>
       <c r="H18" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="11" t="n">
+      <c r="B19" s="10" t="n">
         <v>10</v>
       </c>
       <c r="C19" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="D19" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>150</v>
-      </c>
       <c r="H19" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="11" t="n">
+      <c r="B20" s="10" t="n">
         <v>11</v>
       </c>
       <c r="C20" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="D20" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>150</v>
-      </c>
       <c r="H20" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="11" t="n">
+      <c r="B21" s="10" t="n">
         <v>12</v>
       </c>
       <c r="C21" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="D21" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>150</v>
-      </c>
       <c r="H21" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="11" t="n">
+      <c r="B22" s="10" t="n">
         <v>13</v>
       </c>
       <c r="C22" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="D22" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>150</v>
-      </c>
       <c r="H22" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="11" t="n">
+      <c r="B23" s="10" t="n">
         <v>14</v>
       </c>
       <c r="C23" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="D23" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>150</v>
-      </c>
       <c r="H23" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="11" t="n">
+      <c r="B24" s="10" t="n">
         <v>15</v>
       </c>
       <c r="C24" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="D24" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>150</v>
-      </c>
       <c r="H24" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="11" t="n">
+      <c r="B25" s="10" t="n">
         <v>16</v>
       </c>
       <c r="C25" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="D25" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>150</v>
-      </c>
       <c r="H25" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="11" t="n">
+      <c r="B26" s="10" t="n">
         <v>17</v>
       </c>
       <c r="C26" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="D26" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>150</v>
-      </c>
       <c r="H26" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="11" t="n">
+      <c r="B27" s="10" t="n">
         <v>18</v>
       </c>
       <c r="C27" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="D27" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" s="0" t="s">
-        <v>150</v>
-      </c>
       <c r="H27" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="11" t="n">
+      <c r="B28" s="10" t="n">
         <v>19</v>
       </c>
       <c r="C28" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="D28" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="G28" s="0" t="s">
-        <v>150</v>
-      </c>
       <c r="H28" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="11" t="n">
+      <c r="B29" s="10" t="n">
         <v>20</v>
       </c>
       <c r="C29" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="D29" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="G29" s="0" t="s">
-        <v>150</v>
-      </c>
       <c r="H29" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="11" t="n">
+      <c r="B30" s="10" t="n">
         <v>21</v>
       </c>
       <c r="C30" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="G30" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="D30" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F30" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>150</v>
-      </c>
       <c r="H30" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="11" t="n">
+      <c r="B31" s="10" t="n">
         <v>22</v>
       </c>
       <c r="C31" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="G31" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="D31" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="G31" s="0" t="s">
-        <v>150</v>
-      </c>
       <c r="H31" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="11" t="n">
+      <c r="B32" s="10" t="n">
         <v>23</v>
       </c>
       <c r="C32" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="G32" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="D32" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F32" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="G32" s="0" t="s">
-        <v>150</v>
-      </c>
       <c r="H32" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="11" t="n">
+      <c r="B33" s="10" t="n">
         <v>24</v>
       </c>
       <c r="C33" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E33" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="E33" s="0" t="s">
-        <v>163</v>
-      </c>
       <c r="F33" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -6442,7 +6432,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L1006"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
@@ -6464,41 +6454,41 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6506,25 +6496,25 @@
         <v>16</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="G2" s="0" t="s">
+      <c r="I2" s="0" t="s">
         <v>178</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6532,19 +6522,19 @@
         <v>16</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>177</v>
+      <c r="D3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>176</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>200</v>
@@ -6555,25 +6545,25 @@
         <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="I4" s="0" t="s">
         <v>182</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6581,25 +6571,25 @@
         <v>16</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="I5" s="0" t="s">
         <v>184</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6607,23 +6597,5023 @@
         <v>16</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>177</v>
+        <v>185</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>176</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>201</v>
       </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+    </row>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C102" s="8"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+    </row>
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C103" s="8"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+    </row>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C104" s="8"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+    </row>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+    </row>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+    </row>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+    </row>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+    </row>
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+    </row>
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+    </row>
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+    </row>
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+    </row>
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+    </row>
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C114" s="8"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+    </row>
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C115" s="8"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+    </row>
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C116" s="8"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+    </row>
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C117" s="8"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+    </row>
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C118" s="8"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+    </row>
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C119" s="8"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+    </row>
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C120" s="8"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+    </row>
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+    </row>
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C122" s="8"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+    </row>
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C123" s="8"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+    </row>
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C124" s="8"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+    </row>
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C125" s="8"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+    </row>
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C126" s="8"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+    </row>
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C127" s="8"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+    </row>
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C128" s="8"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+    </row>
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C129" s="8"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+    </row>
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C130" s="8"/>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+    </row>
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C131" s="8"/>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+    </row>
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C132" s="8"/>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+    </row>
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C133" s="8"/>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+    </row>
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C134" s="8"/>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+    </row>
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C135" s="8"/>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+    </row>
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C136" s="8"/>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+    </row>
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C137" s="8"/>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+    </row>
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C138" s="8"/>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+    </row>
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C139" s="8"/>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+    </row>
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C140" s="8"/>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+    </row>
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C141" s="8"/>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+    </row>
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C142" s="8"/>
+      <c r="D142" s="8"/>
+      <c r="E142" s="8"/>
+    </row>
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C143" s="8"/>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
+    </row>
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C144" s="8"/>
+      <c r="D144" s="8"/>
+      <c r="E144" s="8"/>
+    </row>
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C145" s="8"/>
+      <c r="D145" s="8"/>
+      <c r="E145" s="8"/>
+    </row>
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C146" s="8"/>
+      <c r="D146" s="8"/>
+      <c r="E146" s="8"/>
+    </row>
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C147" s="8"/>
+      <c r="D147" s="8"/>
+      <c r="E147" s="8"/>
+    </row>
+    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C148" s="8"/>
+      <c r="D148" s="8"/>
+      <c r="E148" s="8"/>
+    </row>
+    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C149" s="8"/>
+      <c r="D149" s="8"/>
+      <c r="E149" s="8"/>
+    </row>
+    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C150" s="8"/>
+      <c r="D150" s="8"/>
+      <c r="E150" s="8"/>
+    </row>
+    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C151" s="8"/>
+      <c r="D151" s="8"/>
+      <c r="E151" s="8"/>
+    </row>
+    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C152" s="8"/>
+      <c r="D152" s="8"/>
+      <c r="E152" s="8"/>
+    </row>
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C153" s="8"/>
+      <c r="D153" s="8"/>
+      <c r="E153" s="8"/>
+    </row>
+    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C154" s="8"/>
+      <c r="D154" s="8"/>
+      <c r="E154" s="8"/>
+    </row>
+    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C155" s="8"/>
+      <c r="D155" s="8"/>
+      <c r="E155" s="8"/>
+    </row>
+    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C156" s="8"/>
+      <c r="D156" s="8"/>
+      <c r="E156" s="8"/>
+    </row>
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C157" s="8"/>
+      <c r="D157" s="8"/>
+      <c r="E157" s="8"/>
+    </row>
+    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C158" s="8"/>
+      <c r="D158" s="8"/>
+      <c r="E158" s="8"/>
+    </row>
+    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C159" s="8"/>
+      <c r="D159" s="8"/>
+      <c r="E159" s="8"/>
+    </row>
+    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C160" s="8"/>
+      <c r="D160" s="8"/>
+      <c r="E160" s="8"/>
+    </row>
+    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C161" s="8"/>
+      <c r="D161" s="8"/>
+      <c r="E161" s="8"/>
+    </row>
+    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C162" s="8"/>
+      <c r="D162" s="8"/>
+      <c r="E162" s="8"/>
+    </row>
+    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C163" s="8"/>
+      <c r="D163" s="8"/>
+      <c r="E163" s="8"/>
+    </row>
+    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C164" s="8"/>
+      <c r="D164" s="8"/>
+      <c r="E164" s="8"/>
+    </row>
+    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C165" s="8"/>
+      <c r="D165" s="8"/>
+      <c r="E165" s="8"/>
+    </row>
+    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C166" s="8"/>
+      <c r="D166" s="8"/>
+      <c r="E166" s="8"/>
+    </row>
+    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C167" s="8"/>
+      <c r="D167" s="8"/>
+      <c r="E167" s="8"/>
+    </row>
+    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C168" s="8"/>
+      <c r="D168" s="8"/>
+      <c r="E168" s="8"/>
+    </row>
+    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C169" s="8"/>
+      <c r="D169" s="8"/>
+      <c r="E169" s="8"/>
+    </row>
+    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C170" s="8"/>
+      <c r="D170" s="8"/>
+      <c r="E170" s="8"/>
+    </row>
+    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C171" s="8"/>
+      <c r="D171" s="8"/>
+      <c r="E171" s="8"/>
+    </row>
+    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C172" s="8"/>
+      <c r="D172" s="8"/>
+      <c r="E172" s="8"/>
+    </row>
+    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C173" s="8"/>
+      <c r="D173" s="8"/>
+      <c r="E173" s="8"/>
+    </row>
+    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C174" s="8"/>
+      <c r="D174" s="8"/>
+      <c r="E174" s="8"/>
+    </row>
+    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C175" s="8"/>
+      <c r="D175" s="8"/>
+      <c r="E175" s="8"/>
+    </row>
+    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C176" s="8"/>
+      <c r="D176" s="8"/>
+      <c r="E176" s="8"/>
+    </row>
+    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C177" s="8"/>
+      <c r="D177" s="8"/>
+      <c r="E177" s="8"/>
+    </row>
+    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C178" s="8"/>
+      <c r="D178" s="8"/>
+      <c r="E178" s="8"/>
+    </row>
+    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C179" s="8"/>
+      <c r="D179" s="8"/>
+      <c r="E179" s="8"/>
+    </row>
+    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C180" s="8"/>
+      <c r="D180" s="8"/>
+      <c r="E180" s="8"/>
+    </row>
+    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C181" s="8"/>
+      <c r="D181" s="8"/>
+      <c r="E181" s="8"/>
+    </row>
+    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C182" s="8"/>
+      <c r="D182" s="8"/>
+      <c r="E182" s="8"/>
+    </row>
+    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C183" s="8"/>
+      <c r="D183" s="8"/>
+      <c r="E183" s="8"/>
+    </row>
+    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C184" s="8"/>
+      <c r="D184" s="8"/>
+      <c r="E184" s="8"/>
+    </row>
+    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C185" s="8"/>
+      <c r="D185" s="8"/>
+      <c r="E185" s="8"/>
+    </row>
+    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C186" s="8"/>
+      <c r="D186" s="8"/>
+      <c r="E186" s="8"/>
+    </row>
+    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C187" s="8"/>
+      <c r="D187" s="8"/>
+      <c r="E187" s="8"/>
+    </row>
+    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C188" s="8"/>
+      <c r="D188" s="8"/>
+      <c r="E188" s="8"/>
+    </row>
+    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C189" s="8"/>
+      <c r="D189" s="8"/>
+      <c r="E189" s="8"/>
+    </row>
+    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C190" s="8"/>
+      <c r="D190" s="8"/>
+      <c r="E190" s="8"/>
+    </row>
+    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C191" s="8"/>
+      <c r="D191" s="8"/>
+      <c r="E191" s="8"/>
+    </row>
+    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C192" s="8"/>
+      <c r="D192" s="8"/>
+      <c r="E192" s="8"/>
+    </row>
+    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C193" s="8"/>
+      <c r="D193" s="8"/>
+      <c r="E193" s="8"/>
+    </row>
+    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C194" s="8"/>
+      <c r="D194" s="8"/>
+      <c r="E194" s="8"/>
+    </row>
+    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C195" s="8"/>
+      <c r="D195" s="8"/>
+      <c r="E195" s="8"/>
+    </row>
+    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C196" s="8"/>
+      <c r="D196" s="8"/>
+      <c r="E196" s="8"/>
+    </row>
+    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C197" s="8"/>
+      <c r="D197" s="8"/>
+      <c r="E197" s="8"/>
+    </row>
+    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C198" s="8"/>
+      <c r="D198" s="8"/>
+      <c r="E198" s="8"/>
+    </row>
+    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C199" s="8"/>
+      <c r="D199" s="8"/>
+      <c r="E199" s="8"/>
+    </row>
+    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C200" s="8"/>
+      <c r="D200" s="8"/>
+      <c r="E200" s="8"/>
+    </row>
+    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C201" s="8"/>
+      <c r="D201" s="8"/>
+      <c r="E201" s="8"/>
+    </row>
+    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C202" s="8"/>
+      <c r="D202" s="8"/>
+      <c r="E202" s="8"/>
+    </row>
+    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C203" s="8"/>
+      <c r="D203" s="8"/>
+      <c r="E203" s="8"/>
+    </row>
+    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C204" s="8"/>
+      <c r="D204" s="8"/>
+      <c r="E204" s="8"/>
+    </row>
+    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C205" s="8"/>
+      <c r="D205" s="8"/>
+      <c r="E205" s="8"/>
+    </row>
+    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C206" s="8"/>
+      <c r="D206" s="8"/>
+      <c r="E206" s="8"/>
+    </row>
+    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C207" s="8"/>
+      <c r="D207" s="8"/>
+      <c r="E207" s="8"/>
+    </row>
+    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C208" s="8"/>
+      <c r="D208" s="8"/>
+      <c r="E208" s="8"/>
+    </row>
+    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C209" s="8"/>
+      <c r="D209" s="8"/>
+      <c r="E209" s="8"/>
+    </row>
+    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C210" s="8"/>
+      <c r="D210" s="8"/>
+      <c r="E210" s="8"/>
+    </row>
+    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C211" s="8"/>
+      <c r="D211" s="8"/>
+      <c r="E211" s="8"/>
+    </row>
+    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C212" s="8"/>
+      <c r="D212" s="8"/>
+      <c r="E212" s="8"/>
+    </row>
+    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C213" s="8"/>
+      <c r="D213" s="8"/>
+      <c r="E213" s="8"/>
+    </row>
+    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C214" s="8"/>
+      <c r="D214" s="8"/>
+      <c r="E214" s="8"/>
+    </row>
+    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C215" s="8"/>
+      <c r="D215" s="8"/>
+      <c r="E215" s="8"/>
+    </row>
+    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C216" s="8"/>
+      <c r="D216" s="8"/>
+      <c r="E216" s="8"/>
+    </row>
+    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C217" s="8"/>
+      <c r="D217" s="8"/>
+      <c r="E217" s="8"/>
+    </row>
+    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C218" s="8"/>
+      <c r="D218" s="8"/>
+      <c r="E218" s="8"/>
+    </row>
+    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C219" s="8"/>
+      <c r="D219" s="8"/>
+      <c r="E219" s="8"/>
+    </row>
+    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C220" s="8"/>
+      <c r="D220" s="8"/>
+      <c r="E220" s="8"/>
+    </row>
+    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C221" s="8"/>
+      <c r="D221" s="8"/>
+      <c r="E221" s="8"/>
+    </row>
+    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C222" s="8"/>
+      <c r="D222" s="8"/>
+      <c r="E222" s="8"/>
+    </row>
+    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C223" s="8"/>
+      <c r="D223" s="8"/>
+      <c r="E223" s="8"/>
+    </row>
+    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C224" s="8"/>
+      <c r="D224" s="8"/>
+      <c r="E224" s="8"/>
+    </row>
+    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C225" s="8"/>
+      <c r="D225" s="8"/>
+      <c r="E225" s="8"/>
+    </row>
+    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C226" s="8"/>
+      <c r="D226" s="8"/>
+      <c r="E226" s="8"/>
+    </row>
+    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C227" s="8"/>
+      <c r="D227" s="8"/>
+      <c r="E227" s="8"/>
+    </row>
+    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C228" s="8"/>
+      <c r="D228" s="8"/>
+      <c r="E228" s="8"/>
+    </row>
+    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C229" s="8"/>
+      <c r="D229" s="8"/>
+      <c r="E229" s="8"/>
+    </row>
+    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C230" s="8"/>
+      <c r="D230" s="8"/>
+      <c r="E230" s="8"/>
+    </row>
+    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C231" s="8"/>
+      <c r="D231" s="8"/>
+      <c r="E231" s="8"/>
+    </row>
+    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C232" s="8"/>
+      <c r="D232" s="8"/>
+      <c r="E232" s="8"/>
+    </row>
+    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C233" s="8"/>
+      <c r="D233" s="8"/>
+      <c r="E233" s="8"/>
+    </row>
+    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C234" s="8"/>
+      <c r="D234" s="8"/>
+      <c r="E234" s="8"/>
+    </row>
+    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C235" s="8"/>
+      <c r="D235" s="8"/>
+      <c r="E235" s="8"/>
+    </row>
+    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C236" s="8"/>
+      <c r="D236" s="8"/>
+      <c r="E236" s="8"/>
+    </row>
+    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C237" s="8"/>
+      <c r="D237" s="8"/>
+      <c r="E237" s="8"/>
+    </row>
+    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C238" s="8"/>
+      <c r="D238" s="8"/>
+      <c r="E238" s="8"/>
+    </row>
+    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C239" s="8"/>
+      <c r="D239" s="8"/>
+      <c r="E239" s="8"/>
+    </row>
+    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C240" s="8"/>
+      <c r="D240" s="8"/>
+      <c r="E240" s="8"/>
+    </row>
+    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C241" s="8"/>
+      <c r="D241" s="8"/>
+      <c r="E241" s="8"/>
+    </row>
+    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C242" s="8"/>
+      <c r="D242" s="8"/>
+      <c r="E242" s="8"/>
+    </row>
+    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C243" s="8"/>
+      <c r="D243" s="8"/>
+      <c r="E243" s="8"/>
+    </row>
+    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C244" s="8"/>
+      <c r="D244" s="8"/>
+      <c r="E244" s="8"/>
+    </row>
+    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C245" s="8"/>
+      <c r="D245" s="8"/>
+      <c r="E245" s="8"/>
+    </row>
+    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C246" s="8"/>
+      <c r="D246" s="8"/>
+      <c r="E246" s="8"/>
+    </row>
+    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C247" s="8"/>
+      <c r="D247" s="8"/>
+      <c r="E247" s="8"/>
+    </row>
+    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C248" s="8"/>
+      <c r="D248" s="8"/>
+      <c r="E248" s="8"/>
+    </row>
+    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C249" s="8"/>
+      <c r="D249" s="8"/>
+      <c r="E249" s="8"/>
+    </row>
+    <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C250" s="8"/>
+      <c r="D250" s="8"/>
+      <c r="E250" s="8"/>
+    </row>
+    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C251" s="8"/>
+      <c r="D251" s="8"/>
+      <c r="E251" s="8"/>
+    </row>
+    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C252" s="8"/>
+      <c r="D252" s="8"/>
+      <c r="E252" s="8"/>
+    </row>
+    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C253" s="8"/>
+      <c r="D253" s="8"/>
+      <c r="E253" s="8"/>
+    </row>
+    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C254" s="8"/>
+      <c r="D254" s="8"/>
+      <c r="E254" s="8"/>
+    </row>
+    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C255" s="8"/>
+      <c r="D255" s="8"/>
+      <c r="E255" s="8"/>
+    </row>
+    <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C256" s="8"/>
+      <c r="D256" s="8"/>
+      <c r="E256" s="8"/>
+    </row>
+    <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C257" s="8"/>
+      <c r="D257" s="8"/>
+      <c r="E257" s="8"/>
+    </row>
+    <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C258" s="8"/>
+      <c r="D258" s="8"/>
+      <c r="E258" s="8"/>
+    </row>
+    <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C259" s="8"/>
+      <c r="D259" s="8"/>
+      <c r="E259" s="8"/>
+    </row>
+    <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C260" s="8"/>
+      <c r="D260" s="8"/>
+      <c r="E260" s="8"/>
+    </row>
+    <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C261" s="8"/>
+      <c r="D261" s="8"/>
+      <c r="E261" s="8"/>
+    </row>
+    <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C262" s="8"/>
+      <c r="D262" s="8"/>
+      <c r="E262" s="8"/>
+    </row>
+    <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C263" s="8"/>
+      <c r="D263" s="8"/>
+      <c r="E263" s="8"/>
+    </row>
+    <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C264" s="8"/>
+      <c r="D264" s="8"/>
+      <c r="E264" s="8"/>
+    </row>
+    <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C265" s="8"/>
+      <c r="D265" s="8"/>
+      <c r="E265" s="8"/>
+    </row>
+    <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C266" s="8"/>
+      <c r="D266" s="8"/>
+      <c r="E266" s="8"/>
+    </row>
+    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C267" s="8"/>
+      <c r="D267" s="8"/>
+      <c r="E267" s="8"/>
+    </row>
+    <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C268" s="8"/>
+      <c r="D268" s="8"/>
+      <c r="E268" s="8"/>
+    </row>
+    <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C269" s="8"/>
+      <c r="D269" s="8"/>
+      <c r="E269" s="8"/>
+    </row>
+    <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C270" s="8"/>
+      <c r="D270" s="8"/>
+      <c r="E270" s="8"/>
+    </row>
+    <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C271" s="8"/>
+      <c r="D271" s="8"/>
+      <c r="E271" s="8"/>
+    </row>
+    <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C272" s="8"/>
+      <c r="D272" s="8"/>
+      <c r="E272" s="8"/>
+    </row>
+    <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C273" s="8"/>
+      <c r="D273" s="8"/>
+      <c r="E273" s="8"/>
+    </row>
+    <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C274" s="8"/>
+      <c r="D274" s="8"/>
+      <c r="E274" s="8"/>
+    </row>
+    <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C275" s="8"/>
+      <c r="D275" s="8"/>
+      <c r="E275" s="8"/>
+    </row>
+    <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C276" s="8"/>
+      <c r="D276" s="8"/>
+      <c r="E276" s="8"/>
+    </row>
+    <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C277" s="8"/>
+      <c r="D277" s="8"/>
+      <c r="E277" s="8"/>
+    </row>
+    <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C278" s="8"/>
+      <c r="D278" s="8"/>
+      <c r="E278" s="8"/>
+    </row>
+    <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C279" s="8"/>
+      <c r="D279" s="8"/>
+      <c r="E279" s="8"/>
+    </row>
+    <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C280" s="8"/>
+      <c r="D280" s="8"/>
+      <c r="E280" s="8"/>
+    </row>
+    <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C281" s="8"/>
+      <c r="D281" s="8"/>
+      <c r="E281" s="8"/>
+    </row>
+    <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C282" s="8"/>
+      <c r="D282" s="8"/>
+      <c r="E282" s="8"/>
+    </row>
+    <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C283" s="8"/>
+      <c r="D283" s="8"/>
+      <c r="E283" s="8"/>
+    </row>
+    <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C284" s="8"/>
+      <c r="D284" s="8"/>
+      <c r="E284" s="8"/>
+    </row>
+    <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C285" s="8"/>
+      <c r="D285" s="8"/>
+      <c r="E285" s="8"/>
+    </row>
+    <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C286" s="8"/>
+      <c r="D286" s="8"/>
+      <c r="E286" s="8"/>
+    </row>
+    <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C287" s="8"/>
+      <c r="D287" s="8"/>
+      <c r="E287" s="8"/>
+    </row>
+    <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C288" s="8"/>
+      <c r="D288" s="8"/>
+      <c r="E288" s="8"/>
+    </row>
+    <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C289" s="8"/>
+      <c r="D289" s="8"/>
+      <c r="E289" s="8"/>
+    </row>
+    <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C290" s="8"/>
+      <c r="D290" s="8"/>
+      <c r="E290" s="8"/>
+    </row>
+    <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C291" s="8"/>
+      <c r="D291" s="8"/>
+      <c r="E291" s="8"/>
+    </row>
+    <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C292" s="8"/>
+      <c r="D292" s="8"/>
+      <c r="E292" s="8"/>
+    </row>
+    <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C293" s="8"/>
+      <c r="D293" s="8"/>
+      <c r="E293" s="8"/>
+    </row>
+    <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C294" s="8"/>
+      <c r="D294" s="8"/>
+      <c r="E294" s="8"/>
+    </row>
+    <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C295" s="8"/>
+      <c r="D295" s="8"/>
+      <c r="E295" s="8"/>
+    </row>
+    <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C296" s="8"/>
+      <c r="D296" s="8"/>
+      <c r="E296" s="8"/>
+    </row>
+    <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C297" s="8"/>
+      <c r="D297" s="8"/>
+      <c r="E297" s="8"/>
+    </row>
+    <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C298" s="8"/>
+      <c r="D298" s="8"/>
+      <c r="E298" s="8"/>
+    </row>
+    <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C299" s="8"/>
+      <c r="D299" s="8"/>
+      <c r="E299" s="8"/>
+    </row>
+    <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C300" s="8"/>
+      <c r="D300" s="8"/>
+      <c r="E300" s="8"/>
+    </row>
+    <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C301" s="8"/>
+      <c r="D301" s="8"/>
+      <c r="E301" s="8"/>
+    </row>
+    <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C302" s="8"/>
+      <c r="D302" s="8"/>
+      <c r="E302" s="8"/>
+    </row>
+    <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C303" s="8"/>
+      <c r="D303" s="8"/>
+      <c r="E303" s="8"/>
+    </row>
+    <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C304" s="8"/>
+      <c r="D304" s="8"/>
+      <c r="E304" s="8"/>
+    </row>
+    <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C305" s="8"/>
+      <c r="D305" s="8"/>
+      <c r="E305" s="8"/>
+    </row>
+    <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C306" s="8"/>
+      <c r="D306" s="8"/>
+      <c r="E306" s="8"/>
+    </row>
+    <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C307" s="8"/>
+      <c r="D307" s="8"/>
+      <c r="E307" s="8"/>
+    </row>
+    <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C308" s="8"/>
+      <c r="D308" s="8"/>
+      <c r="E308" s="8"/>
+    </row>
+    <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C309" s="8"/>
+      <c r="D309" s="8"/>
+      <c r="E309" s="8"/>
+    </row>
+    <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C310" s="8"/>
+      <c r="D310" s="8"/>
+      <c r="E310" s="8"/>
+    </row>
+    <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C311" s="8"/>
+      <c r="D311" s="8"/>
+      <c r="E311" s="8"/>
+    </row>
+    <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C312" s="8"/>
+      <c r="D312" s="8"/>
+      <c r="E312" s="8"/>
+    </row>
+    <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C313" s="8"/>
+      <c r="D313" s="8"/>
+      <c r="E313" s="8"/>
+    </row>
+    <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C314" s="8"/>
+      <c r="D314" s="8"/>
+      <c r="E314" s="8"/>
+    </row>
+    <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C315" s="8"/>
+      <c r="D315" s="8"/>
+      <c r="E315" s="8"/>
+    </row>
+    <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C316" s="8"/>
+      <c r="D316" s="8"/>
+      <c r="E316" s="8"/>
+    </row>
+    <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C317" s="8"/>
+      <c r="D317" s="8"/>
+      <c r="E317" s="8"/>
+    </row>
+    <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C318" s="8"/>
+      <c r="D318" s="8"/>
+      <c r="E318" s="8"/>
+    </row>
+    <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C319" s="8"/>
+      <c r="D319" s="8"/>
+      <c r="E319" s="8"/>
+    </row>
+    <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C320" s="8"/>
+      <c r="D320" s="8"/>
+      <c r="E320" s="8"/>
+    </row>
+    <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C321" s="8"/>
+      <c r="D321" s="8"/>
+      <c r="E321" s="8"/>
+    </row>
+    <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C322" s="8"/>
+      <c r="D322" s="8"/>
+      <c r="E322" s="8"/>
+    </row>
+    <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C323" s="8"/>
+      <c r="D323" s="8"/>
+      <c r="E323" s="8"/>
+    </row>
+    <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C324" s="8"/>
+      <c r="D324" s="8"/>
+      <c r="E324" s="8"/>
+    </row>
+    <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C325" s="8"/>
+      <c r="D325" s="8"/>
+      <c r="E325" s="8"/>
+    </row>
+    <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C326" s="8"/>
+      <c r="D326" s="8"/>
+      <c r="E326" s="8"/>
+    </row>
+    <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C327" s="8"/>
+      <c r="D327" s="8"/>
+      <c r="E327" s="8"/>
+    </row>
+    <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C328" s="8"/>
+      <c r="D328" s="8"/>
+      <c r="E328" s="8"/>
+    </row>
+    <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C329" s="8"/>
+      <c r="D329" s="8"/>
+      <c r="E329" s="8"/>
+    </row>
+    <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C330" s="8"/>
+      <c r="D330" s="8"/>
+      <c r="E330" s="8"/>
+    </row>
+    <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C331" s="8"/>
+      <c r="D331" s="8"/>
+      <c r="E331" s="8"/>
+    </row>
+    <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C332" s="8"/>
+      <c r="D332" s="8"/>
+      <c r="E332" s="8"/>
+    </row>
+    <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C333" s="8"/>
+      <c r="D333" s="8"/>
+      <c r="E333" s="8"/>
+    </row>
+    <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C334" s="8"/>
+      <c r="D334" s="8"/>
+      <c r="E334" s="8"/>
+    </row>
+    <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C335" s="8"/>
+      <c r="D335" s="8"/>
+      <c r="E335" s="8"/>
+    </row>
+    <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C336" s="8"/>
+      <c r="D336" s="8"/>
+      <c r="E336" s="8"/>
+    </row>
+    <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C337" s="8"/>
+      <c r="D337" s="8"/>
+      <c r="E337" s="8"/>
+    </row>
+    <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C338" s="8"/>
+      <c r="D338" s="8"/>
+      <c r="E338" s="8"/>
+    </row>
+    <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C339" s="8"/>
+      <c r="D339" s="8"/>
+      <c r="E339" s="8"/>
+    </row>
+    <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C340" s="8"/>
+      <c r="D340" s="8"/>
+      <c r="E340" s="8"/>
+    </row>
+    <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C341" s="8"/>
+      <c r="D341" s="8"/>
+      <c r="E341" s="8"/>
+    </row>
+    <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C342" s="8"/>
+      <c r="D342" s="8"/>
+      <c r="E342" s="8"/>
+    </row>
+    <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C343" s="8"/>
+      <c r="D343" s="8"/>
+      <c r="E343" s="8"/>
+    </row>
+    <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C344" s="8"/>
+      <c r="D344" s="8"/>
+      <c r="E344" s="8"/>
+    </row>
+    <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C345" s="8"/>
+      <c r="D345" s="8"/>
+      <c r="E345" s="8"/>
+    </row>
+    <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C346" s="8"/>
+      <c r="D346" s="8"/>
+      <c r="E346" s="8"/>
+    </row>
+    <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C347" s="8"/>
+      <c r="D347" s="8"/>
+      <c r="E347" s="8"/>
+    </row>
+    <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C348" s="8"/>
+      <c r="D348" s="8"/>
+      <c r="E348" s="8"/>
+    </row>
+    <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C349" s="8"/>
+      <c r="D349" s="8"/>
+      <c r="E349" s="8"/>
+    </row>
+    <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C350" s="8"/>
+      <c r="D350" s="8"/>
+      <c r="E350" s="8"/>
+    </row>
+    <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C351" s="8"/>
+      <c r="D351" s="8"/>
+      <c r="E351" s="8"/>
+    </row>
+    <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C352" s="8"/>
+      <c r="D352" s="8"/>
+      <c r="E352" s="8"/>
+    </row>
+    <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C353" s="8"/>
+      <c r="D353" s="8"/>
+      <c r="E353" s="8"/>
+    </row>
+    <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C354" s="8"/>
+      <c r="D354" s="8"/>
+      <c r="E354" s="8"/>
+    </row>
+    <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C355" s="8"/>
+      <c r="D355" s="8"/>
+      <c r="E355" s="8"/>
+    </row>
+    <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C356" s="8"/>
+      <c r="D356" s="8"/>
+      <c r="E356" s="8"/>
+    </row>
+    <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C357" s="8"/>
+      <c r="D357" s="8"/>
+      <c r="E357" s="8"/>
+    </row>
+    <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C358" s="8"/>
+      <c r="D358" s="8"/>
+      <c r="E358" s="8"/>
+    </row>
+    <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C359" s="8"/>
+      <c r="D359" s="8"/>
+      <c r="E359" s="8"/>
+    </row>
+    <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C360" s="8"/>
+      <c r="D360" s="8"/>
+      <c r="E360" s="8"/>
+    </row>
+    <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C361" s="8"/>
+      <c r="D361" s="8"/>
+      <c r="E361" s="8"/>
+    </row>
+    <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C362" s="8"/>
+      <c r="D362" s="8"/>
+      <c r="E362" s="8"/>
+    </row>
+    <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C363" s="8"/>
+      <c r="D363" s="8"/>
+      <c r="E363" s="8"/>
+    </row>
+    <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C364" s="8"/>
+      <c r="D364" s="8"/>
+      <c r="E364" s="8"/>
+    </row>
+    <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C365" s="8"/>
+      <c r="D365" s="8"/>
+      <c r="E365" s="8"/>
+    </row>
+    <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C366" s="8"/>
+      <c r="D366" s="8"/>
+      <c r="E366" s="8"/>
+    </row>
+    <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C367" s="8"/>
+      <c r="D367" s="8"/>
+      <c r="E367" s="8"/>
+    </row>
+    <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C368" s="8"/>
+      <c r="D368" s="8"/>
+      <c r="E368" s="8"/>
+    </row>
+    <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C369" s="8"/>
+      <c r="D369" s="8"/>
+      <c r="E369" s="8"/>
+    </row>
+    <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C370" s="8"/>
+      <c r="D370" s="8"/>
+      <c r="E370" s="8"/>
+    </row>
+    <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C371" s="8"/>
+      <c r="D371" s="8"/>
+      <c r="E371" s="8"/>
+    </row>
+    <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C372" s="8"/>
+      <c r="D372" s="8"/>
+      <c r="E372" s="8"/>
+    </row>
+    <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C373" s="8"/>
+      <c r="D373" s="8"/>
+      <c r="E373" s="8"/>
+    </row>
+    <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C374" s="8"/>
+      <c r="D374" s="8"/>
+      <c r="E374" s="8"/>
+    </row>
+    <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C375" s="8"/>
+      <c r="D375" s="8"/>
+      <c r="E375" s="8"/>
+    </row>
+    <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C376" s="8"/>
+      <c r="D376" s="8"/>
+      <c r="E376" s="8"/>
+    </row>
+    <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C377" s="8"/>
+      <c r="D377" s="8"/>
+      <c r="E377" s="8"/>
+    </row>
+    <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C378" s="8"/>
+      <c r="D378" s="8"/>
+      <c r="E378" s="8"/>
+    </row>
+    <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C379" s="8"/>
+      <c r="D379" s="8"/>
+      <c r="E379" s="8"/>
+    </row>
+    <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C380" s="8"/>
+      <c r="D380" s="8"/>
+      <c r="E380" s="8"/>
+    </row>
+    <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C381" s="8"/>
+      <c r="D381" s="8"/>
+      <c r="E381" s="8"/>
+    </row>
+    <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C382" s="8"/>
+      <c r="D382" s="8"/>
+      <c r="E382" s="8"/>
+    </row>
+    <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C383" s="8"/>
+      <c r="D383" s="8"/>
+      <c r="E383" s="8"/>
+    </row>
+    <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C384" s="8"/>
+      <c r="D384" s="8"/>
+      <c r="E384" s="8"/>
+    </row>
+    <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C385" s="8"/>
+      <c r="D385" s="8"/>
+      <c r="E385" s="8"/>
+    </row>
+    <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C386" s="8"/>
+      <c r="D386" s="8"/>
+      <c r="E386" s="8"/>
+    </row>
+    <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C387" s="8"/>
+      <c r="D387" s="8"/>
+      <c r="E387" s="8"/>
+    </row>
+    <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C388" s="8"/>
+      <c r="D388" s="8"/>
+      <c r="E388" s="8"/>
+    </row>
+    <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C389" s="8"/>
+      <c r="D389" s="8"/>
+      <c r="E389" s="8"/>
+    </row>
+    <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C390" s="8"/>
+      <c r="D390" s="8"/>
+      <c r="E390" s="8"/>
+    </row>
+    <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C391" s="8"/>
+      <c r="D391" s="8"/>
+      <c r="E391" s="8"/>
+    </row>
+    <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C392" s="8"/>
+      <c r="D392" s="8"/>
+      <c r="E392" s="8"/>
+    </row>
+    <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C393" s="8"/>
+      <c r="D393" s="8"/>
+      <c r="E393" s="8"/>
+    </row>
+    <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C394" s="8"/>
+      <c r="D394" s="8"/>
+      <c r="E394" s="8"/>
+    </row>
+    <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C395" s="8"/>
+      <c r="D395" s="8"/>
+      <c r="E395" s="8"/>
+    </row>
+    <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C396" s="8"/>
+      <c r="D396" s="8"/>
+      <c r="E396" s="8"/>
+    </row>
+    <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C397" s="8"/>
+      <c r="D397" s="8"/>
+      <c r="E397" s="8"/>
+    </row>
+    <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C398" s="8"/>
+      <c r="D398" s="8"/>
+      <c r="E398" s="8"/>
+    </row>
+    <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C399" s="8"/>
+      <c r="D399" s="8"/>
+      <c r="E399" s="8"/>
+    </row>
+    <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C400" s="8"/>
+      <c r="D400" s="8"/>
+      <c r="E400" s="8"/>
+    </row>
+    <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C401" s="8"/>
+      <c r="D401" s="8"/>
+      <c r="E401" s="8"/>
+    </row>
+    <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C402" s="8"/>
+      <c r="D402" s="8"/>
+      <c r="E402" s="8"/>
+    </row>
+    <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C403" s="8"/>
+      <c r="D403" s="8"/>
+      <c r="E403" s="8"/>
+    </row>
+    <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C404" s="8"/>
+      <c r="D404" s="8"/>
+      <c r="E404" s="8"/>
+    </row>
+    <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C405" s="8"/>
+      <c r="D405" s="8"/>
+      <c r="E405" s="8"/>
+    </row>
+    <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C406" s="8"/>
+      <c r="D406" s="8"/>
+      <c r="E406" s="8"/>
+    </row>
+    <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C407" s="8"/>
+      <c r="D407" s="8"/>
+      <c r="E407" s="8"/>
+    </row>
+    <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C408" s="8"/>
+      <c r="D408" s="8"/>
+      <c r="E408" s="8"/>
+    </row>
+    <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C409" s="8"/>
+      <c r="D409" s="8"/>
+      <c r="E409" s="8"/>
+    </row>
+    <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C410" s="8"/>
+      <c r="D410" s="8"/>
+      <c r="E410" s="8"/>
+    </row>
+    <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C411" s="8"/>
+      <c r="D411" s="8"/>
+      <c r="E411" s="8"/>
+    </row>
+    <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C412" s="8"/>
+      <c r="D412" s="8"/>
+      <c r="E412" s="8"/>
+    </row>
+    <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C413" s="8"/>
+      <c r="D413" s="8"/>
+      <c r="E413" s="8"/>
+    </row>
+    <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C414" s="8"/>
+      <c r="D414" s="8"/>
+      <c r="E414" s="8"/>
+    </row>
+    <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C415" s="8"/>
+      <c r="D415" s="8"/>
+      <c r="E415" s="8"/>
+    </row>
+    <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C416" s="8"/>
+      <c r="D416" s="8"/>
+      <c r="E416" s="8"/>
+    </row>
+    <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C417" s="8"/>
+      <c r="D417" s="8"/>
+      <c r="E417" s="8"/>
+    </row>
+    <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C418" s="8"/>
+      <c r="D418" s="8"/>
+      <c r="E418" s="8"/>
+    </row>
+    <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C419" s="8"/>
+      <c r="D419" s="8"/>
+      <c r="E419" s="8"/>
+    </row>
+    <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C420" s="8"/>
+      <c r="D420" s="8"/>
+      <c r="E420" s="8"/>
+    </row>
+    <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C421" s="8"/>
+      <c r="D421" s="8"/>
+      <c r="E421" s="8"/>
+    </row>
+    <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C422" s="8"/>
+      <c r="D422" s="8"/>
+      <c r="E422" s="8"/>
+    </row>
+    <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C423" s="8"/>
+      <c r="D423" s="8"/>
+      <c r="E423" s="8"/>
+    </row>
+    <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C424" s="8"/>
+      <c r="D424" s="8"/>
+      <c r="E424" s="8"/>
+    </row>
+    <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C425" s="8"/>
+      <c r="D425" s="8"/>
+      <c r="E425" s="8"/>
+    </row>
+    <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C426" s="8"/>
+      <c r="D426" s="8"/>
+      <c r="E426" s="8"/>
+    </row>
+    <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C427" s="8"/>
+      <c r="D427" s="8"/>
+      <c r="E427" s="8"/>
+    </row>
+    <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C428" s="8"/>
+      <c r="D428" s="8"/>
+      <c r="E428" s="8"/>
+    </row>
+    <row r="429" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C429" s="8"/>
+      <c r="D429" s="8"/>
+      <c r="E429" s="8"/>
+    </row>
+    <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C430" s="8"/>
+      <c r="D430" s="8"/>
+      <c r="E430" s="8"/>
+    </row>
+    <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C431" s="8"/>
+      <c r="D431" s="8"/>
+      <c r="E431" s="8"/>
+    </row>
+    <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C432" s="8"/>
+      <c r="D432" s="8"/>
+      <c r="E432" s="8"/>
+    </row>
+    <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C433" s="8"/>
+      <c r="D433" s="8"/>
+      <c r="E433" s="8"/>
+    </row>
+    <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C434" s="8"/>
+      <c r="D434" s="8"/>
+      <c r="E434" s="8"/>
+    </row>
+    <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C435" s="8"/>
+      <c r="D435" s="8"/>
+      <c r="E435" s="8"/>
+    </row>
+    <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C436" s="8"/>
+      <c r="D436" s="8"/>
+      <c r="E436" s="8"/>
+    </row>
+    <row r="437" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C437" s="8"/>
+      <c r="D437" s="8"/>
+      <c r="E437" s="8"/>
+    </row>
+    <row r="438" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C438" s="8"/>
+      <c r="D438" s="8"/>
+      <c r="E438" s="8"/>
+    </row>
+    <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C439" s="8"/>
+      <c r="D439" s="8"/>
+      <c r="E439" s="8"/>
+    </row>
+    <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C440" s="8"/>
+      <c r="D440" s="8"/>
+      <c r="E440" s="8"/>
+    </row>
+    <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C441" s="8"/>
+      <c r="D441" s="8"/>
+      <c r="E441" s="8"/>
+    </row>
+    <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C442" s="8"/>
+      <c r="D442" s="8"/>
+      <c r="E442" s="8"/>
+    </row>
+    <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C443" s="8"/>
+      <c r="D443" s="8"/>
+      <c r="E443" s="8"/>
+    </row>
+    <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C444" s="8"/>
+      <c r="D444" s="8"/>
+      <c r="E444" s="8"/>
+    </row>
+    <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C445" s="8"/>
+      <c r="D445" s="8"/>
+      <c r="E445" s="8"/>
+    </row>
+    <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C446" s="8"/>
+      <c r="D446" s="8"/>
+      <c r="E446" s="8"/>
+    </row>
+    <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C447" s="8"/>
+      <c r="D447" s="8"/>
+      <c r="E447" s="8"/>
+    </row>
+    <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C448" s="8"/>
+      <c r="D448" s="8"/>
+      <c r="E448" s="8"/>
+    </row>
+    <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C449" s="8"/>
+      <c r="D449" s="8"/>
+      <c r="E449" s="8"/>
+    </row>
+    <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C450" s="8"/>
+      <c r="D450" s="8"/>
+      <c r="E450" s="8"/>
+    </row>
+    <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C451" s="8"/>
+      <c r="D451" s="8"/>
+      <c r="E451" s="8"/>
+    </row>
+    <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C452" s="8"/>
+      <c r="D452" s="8"/>
+      <c r="E452" s="8"/>
+    </row>
+    <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C453" s="8"/>
+      <c r="D453" s="8"/>
+      <c r="E453" s="8"/>
+    </row>
+    <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C454" s="8"/>
+      <c r="D454" s="8"/>
+      <c r="E454" s="8"/>
+    </row>
+    <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C455" s="8"/>
+      <c r="D455" s="8"/>
+      <c r="E455" s="8"/>
+    </row>
+    <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C456" s="8"/>
+      <c r="D456" s="8"/>
+      <c r="E456" s="8"/>
+    </row>
+    <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C457" s="8"/>
+      <c r="D457" s="8"/>
+      <c r="E457" s="8"/>
+    </row>
+    <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C458" s="8"/>
+      <c r="D458" s="8"/>
+      <c r="E458" s="8"/>
+    </row>
+    <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C459" s="8"/>
+      <c r="D459" s="8"/>
+      <c r="E459" s="8"/>
+    </row>
+    <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C460" s="8"/>
+      <c r="D460" s="8"/>
+      <c r="E460" s="8"/>
+    </row>
+    <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C461" s="8"/>
+      <c r="D461" s="8"/>
+      <c r="E461" s="8"/>
+    </row>
+    <row r="462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C462" s="8"/>
+      <c r="D462" s="8"/>
+      <c r="E462" s="8"/>
+    </row>
+    <row r="463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C463" s="8"/>
+      <c r="D463" s="8"/>
+      <c r="E463" s="8"/>
+    </row>
+    <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C464" s="8"/>
+      <c r="D464" s="8"/>
+      <c r="E464" s="8"/>
+    </row>
+    <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C465" s="8"/>
+      <c r="D465" s="8"/>
+      <c r="E465" s="8"/>
+    </row>
+    <row r="466" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C466" s="8"/>
+      <c r="D466" s="8"/>
+      <c r="E466" s="8"/>
+    </row>
+    <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C467" s="8"/>
+      <c r="D467" s="8"/>
+      <c r="E467" s="8"/>
+    </row>
+    <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C468" s="8"/>
+      <c r="D468" s="8"/>
+      <c r="E468" s="8"/>
+    </row>
+    <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C469" s="8"/>
+      <c r="D469" s="8"/>
+      <c r="E469" s="8"/>
+    </row>
+    <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C470" s="8"/>
+      <c r="D470" s="8"/>
+      <c r="E470" s="8"/>
+    </row>
+    <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C471" s="8"/>
+      <c r="D471" s="8"/>
+      <c r="E471" s="8"/>
+    </row>
+    <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C472" s="8"/>
+      <c r="D472" s="8"/>
+      <c r="E472" s="8"/>
+    </row>
+    <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C473" s="8"/>
+      <c r="D473" s="8"/>
+      <c r="E473" s="8"/>
+    </row>
+    <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C474" s="8"/>
+      <c r="D474" s="8"/>
+      <c r="E474" s="8"/>
+    </row>
+    <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C475" s="8"/>
+      <c r="D475" s="8"/>
+      <c r="E475" s="8"/>
+    </row>
+    <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C476" s="8"/>
+      <c r="D476" s="8"/>
+      <c r="E476" s="8"/>
+    </row>
+    <row r="477" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C477" s="8"/>
+      <c r="D477" s="8"/>
+      <c r="E477" s="8"/>
+    </row>
+    <row r="478" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C478" s="8"/>
+      <c r="D478" s="8"/>
+      <c r="E478" s="8"/>
+    </row>
+    <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C479" s="8"/>
+      <c r="D479" s="8"/>
+      <c r="E479" s="8"/>
+    </row>
+    <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C480" s="8"/>
+      <c r="D480" s="8"/>
+      <c r="E480" s="8"/>
+    </row>
+    <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C481" s="8"/>
+      <c r="D481" s="8"/>
+      <c r="E481" s="8"/>
+    </row>
+    <row r="482" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C482" s="8"/>
+      <c r="D482" s="8"/>
+      <c r="E482" s="8"/>
+    </row>
+    <row r="483" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C483" s="8"/>
+      <c r="D483" s="8"/>
+      <c r="E483" s="8"/>
+    </row>
+    <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C484" s="8"/>
+      <c r="D484" s="8"/>
+      <c r="E484" s="8"/>
+    </row>
+    <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C485" s="8"/>
+      <c r="D485" s="8"/>
+      <c r="E485" s="8"/>
+    </row>
+    <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C486" s="8"/>
+      <c r="D486" s="8"/>
+      <c r="E486" s="8"/>
+    </row>
+    <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C487" s="8"/>
+      <c r="D487" s="8"/>
+      <c r="E487" s="8"/>
+    </row>
+    <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C488" s="8"/>
+      <c r="D488" s="8"/>
+      <c r="E488" s="8"/>
+    </row>
+    <row r="489" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C489" s="8"/>
+      <c r="D489" s="8"/>
+      <c r="E489" s="8"/>
+    </row>
+    <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C490" s="8"/>
+      <c r="D490" s="8"/>
+      <c r="E490" s="8"/>
+    </row>
+    <row r="491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C491" s="8"/>
+      <c r="D491" s="8"/>
+      <c r="E491" s="8"/>
+    </row>
+    <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C492" s="8"/>
+      <c r="D492" s="8"/>
+      <c r="E492" s="8"/>
+    </row>
+    <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C493" s="8"/>
+      <c r="D493" s="8"/>
+      <c r="E493" s="8"/>
+    </row>
+    <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C494" s="8"/>
+      <c r="D494" s="8"/>
+      <c r="E494" s="8"/>
+    </row>
+    <row r="495" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C495" s="8"/>
+      <c r="D495" s="8"/>
+      <c r="E495" s="8"/>
+    </row>
+    <row r="496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C496" s="8"/>
+      <c r="D496" s="8"/>
+      <c r="E496" s="8"/>
+    </row>
+    <row r="497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C497" s="8"/>
+      <c r="D497" s="8"/>
+      <c r="E497" s="8"/>
+    </row>
+    <row r="498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C498" s="8"/>
+      <c r="D498" s="8"/>
+      <c r="E498" s="8"/>
+    </row>
+    <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C499" s="8"/>
+      <c r="D499" s="8"/>
+      <c r="E499" s="8"/>
+    </row>
+    <row r="500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C500" s="8"/>
+      <c r="D500" s="8"/>
+      <c r="E500" s="8"/>
+    </row>
+    <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C501" s="8"/>
+      <c r="D501" s="8"/>
+      <c r="E501" s="8"/>
+    </row>
+    <row r="502" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C502" s="8"/>
+      <c r="D502" s="8"/>
+      <c r="E502" s="8"/>
+    </row>
+    <row r="503" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C503" s="8"/>
+      <c r="D503" s="8"/>
+      <c r="E503" s="8"/>
+    </row>
+    <row r="504" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C504" s="8"/>
+      <c r="D504" s="8"/>
+      <c r="E504" s="8"/>
+    </row>
+    <row r="505" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C505" s="8"/>
+      <c r="D505" s="8"/>
+      <c r="E505" s="8"/>
+    </row>
+    <row r="506" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C506" s="8"/>
+      <c r="D506" s="8"/>
+      <c r="E506" s="8"/>
+    </row>
+    <row r="507" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C507" s="8"/>
+      <c r="D507" s="8"/>
+      <c r="E507" s="8"/>
+    </row>
+    <row r="508" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C508" s="8"/>
+      <c r="D508" s="8"/>
+      <c r="E508" s="8"/>
+    </row>
+    <row r="509" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C509" s="8"/>
+      <c r="D509" s="8"/>
+      <c r="E509" s="8"/>
+    </row>
+    <row r="510" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C510" s="8"/>
+      <c r="D510" s="8"/>
+      <c r="E510" s="8"/>
+    </row>
+    <row r="511" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C511" s="8"/>
+      <c r="D511" s="8"/>
+      <c r="E511" s="8"/>
+    </row>
+    <row r="512" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C512" s="8"/>
+      <c r="D512" s="8"/>
+      <c r="E512" s="8"/>
+    </row>
+    <row r="513" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C513" s="8"/>
+      <c r="D513" s="8"/>
+      <c r="E513" s="8"/>
+    </row>
+    <row r="514" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C514" s="8"/>
+      <c r="D514" s="8"/>
+      <c r="E514" s="8"/>
+    </row>
+    <row r="515" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C515" s="8"/>
+      <c r="D515" s="8"/>
+      <c r="E515" s="8"/>
+    </row>
+    <row r="516" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C516" s="8"/>
+      <c r="D516" s="8"/>
+      <c r="E516" s="8"/>
+    </row>
+    <row r="517" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C517" s="8"/>
+      <c r="D517" s="8"/>
+      <c r="E517" s="8"/>
+    </row>
+    <row r="518" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C518" s="8"/>
+      <c r="D518" s="8"/>
+      <c r="E518" s="8"/>
+    </row>
+    <row r="519" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C519" s="8"/>
+      <c r="D519" s="8"/>
+      <c r="E519" s="8"/>
+    </row>
+    <row r="520" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C520" s="8"/>
+      <c r="D520" s="8"/>
+      <c r="E520" s="8"/>
+    </row>
+    <row r="521" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C521" s="8"/>
+      <c r="D521" s="8"/>
+      <c r="E521" s="8"/>
+    </row>
+    <row r="522" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C522" s="8"/>
+      <c r="D522" s="8"/>
+      <c r="E522" s="8"/>
+    </row>
+    <row r="523" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C523" s="8"/>
+      <c r="D523" s="8"/>
+      <c r="E523" s="8"/>
+    </row>
+    <row r="524" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C524" s="8"/>
+      <c r="D524" s="8"/>
+      <c r="E524" s="8"/>
+    </row>
+    <row r="525" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C525" s="8"/>
+      <c r="D525" s="8"/>
+      <c r="E525" s="8"/>
+    </row>
+    <row r="526" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C526" s="8"/>
+      <c r="D526" s="8"/>
+      <c r="E526" s="8"/>
+    </row>
+    <row r="527" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C527" s="8"/>
+      <c r="D527" s="8"/>
+      <c r="E527" s="8"/>
+    </row>
+    <row r="528" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C528" s="8"/>
+      <c r="D528" s="8"/>
+      <c r="E528" s="8"/>
+    </row>
+    <row r="529" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C529" s="8"/>
+      <c r="D529" s="8"/>
+      <c r="E529" s="8"/>
+    </row>
+    <row r="530" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C530" s="8"/>
+      <c r="D530" s="8"/>
+      <c r="E530" s="8"/>
+    </row>
+    <row r="531" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C531" s="8"/>
+      <c r="D531" s="8"/>
+      <c r="E531" s="8"/>
+    </row>
+    <row r="532" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C532" s="8"/>
+      <c r="D532" s="8"/>
+      <c r="E532" s="8"/>
+    </row>
+    <row r="533" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C533" s="8"/>
+      <c r="D533" s="8"/>
+      <c r="E533" s="8"/>
+    </row>
+    <row r="534" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C534" s="8"/>
+      <c r="D534" s="8"/>
+      <c r="E534" s="8"/>
+    </row>
+    <row r="535" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C535" s="8"/>
+      <c r="D535" s="8"/>
+      <c r="E535" s="8"/>
+    </row>
+    <row r="536" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C536" s="8"/>
+      <c r="D536" s="8"/>
+      <c r="E536" s="8"/>
+    </row>
+    <row r="537" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C537" s="8"/>
+      <c r="D537" s="8"/>
+      <c r="E537" s="8"/>
+    </row>
+    <row r="538" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C538" s="8"/>
+      <c r="D538" s="8"/>
+      <c r="E538" s="8"/>
+    </row>
+    <row r="539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C539" s="8"/>
+      <c r="D539" s="8"/>
+      <c r="E539" s="8"/>
+    </row>
+    <row r="540" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C540" s="8"/>
+      <c r="D540" s="8"/>
+      <c r="E540" s="8"/>
+    </row>
+    <row r="541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C541" s="8"/>
+      <c r="D541" s="8"/>
+      <c r="E541" s="8"/>
+    </row>
+    <row r="542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C542" s="8"/>
+      <c r="D542" s="8"/>
+      <c r="E542" s="8"/>
+    </row>
+    <row r="543" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C543" s="8"/>
+      <c r="D543" s="8"/>
+      <c r="E543" s="8"/>
+    </row>
+    <row r="544" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C544" s="8"/>
+      <c r="D544" s="8"/>
+      <c r="E544" s="8"/>
+    </row>
+    <row r="545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C545" s="8"/>
+      <c r="D545" s="8"/>
+      <c r="E545" s="8"/>
+    </row>
+    <row r="546" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C546" s="8"/>
+      <c r="D546" s="8"/>
+      <c r="E546" s="8"/>
+    </row>
+    <row r="547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C547" s="8"/>
+      <c r="D547" s="8"/>
+      <c r="E547" s="8"/>
+    </row>
+    <row r="548" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C548" s="8"/>
+      <c r="D548" s="8"/>
+      <c r="E548" s="8"/>
+    </row>
+    <row r="549" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C549" s="8"/>
+      <c r="D549" s="8"/>
+      <c r="E549" s="8"/>
+    </row>
+    <row r="550" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C550" s="8"/>
+      <c r="D550" s="8"/>
+      <c r="E550" s="8"/>
+    </row>
+    <row r="551" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C551" s="8"/>
+      <c r="D551" s="8"/>
+      <c r="E551" s="8"/>
+    </row>
+    <row r="552" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C552" s="8"/>
+      <c r="D552" s="8"/>
+      <c r="E552" s="8"/>
+    </row>
+    <row r="553" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C553" s="8"/>
+      <c r="D553" s="8"/>
+      <c r="E553" s="8"/>
+    </row>
+    <row r="554" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C554" s="8"/>
+      <c r="D554" s="8"/>
+      <c r="E554" s="8"/>
+    </row>
+    <row r="555" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C555" s="8"/>
+      <c r="D555" s="8"/>
+      <c r="E555" s="8"/>
+    </row>
+    <row r="556" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C556" s="8"/>
+      <c r="D556" s="8"/>
+      <c r="E556" s="8"/>
+    </row>
+    <row r="557" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C557" s="8"/>
+      <c r="D557" s="8"/>
+      <c r="E557" s="8"/>
+    </row>
+    <row r="558" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C558" s="8"/>
+      <c r="D558" s="8"/>
+      <c r="E558" s="8"/>
+    </row>
+    <row r="559" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C559" s="8"/>
+      <c r="D559" s="8"/>
+      <c r="E559" s="8"/>
+    </row>
+    <row r="560" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C560" s="8"/>
+      <c r="D560" s="8"/>
+      <c r="E560" s="8"/>
+    </row>
+    <row r="561" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C561" s="8"/>
+      <c r="D561" s="8"/>
+      <c r="E561" s="8"/>
+    </row>
+    <row r="562" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C562" s="8"/>
+      <c r="D562" s="8"/>
+      <c r="E562" s="8"/>
+    </row>
+    <row r="563" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C563" s="8"/>
+      <c r="D563" s="8"/>
+      <c r="E563" s="8"/>
+    </row>
+    <row r="564" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C564" s="8"/>
+      <c r="D564" s="8"/>
+      <c r="E564" s="8"/>
+    </row>
+    <row r="565" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C565" s="8"/>
+      <c r="D565" s="8"/>
+      <c r="E565" s="8"/>
+    </row>
+    <row r="566" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C566" s="8"/>
+      <c r="D566" s="8"/>
+      <c r="E566" s="8"/>
+    </row>
+    <row r="567" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C567" s="8"/>
+      <c r="D567" s="8"/>
+      <c r="E567" s="8"/>
+    </row>
+    <row r="568" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C568" s="8"/>
+      <c r="D568" s="8"/>
+      <c r="E568" s="8"/>
+    </row>
+    <row r="569" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C569" s="8"/>
+      <c r="D569" s="8"/>
+      <c r="E569" s="8"/>
+    </row>
+    <row r="570" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C570" s="8"/>
+      <c r="D570" s="8"/>
+      <c r="E570" s="8"/>
+    </row>
+    <row r="571" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C571" s="8"/>
+      <c r="D571" s="8"/>
+      <c r="E571" s="8"/>
+    </row>
+    <row r="572" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C572" s="8"/>
+      <c r="D572" s="8"/>
+      <c r="E572" s="8"/>
+    </row>
+    <row r="573" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C573" s="8"/>
+      <c r="D573" s="8"/>
+      <c r="E573" s="8"/>
+    </row>
+    <row r="574" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C574" s="8"/>
+      <c r="D574" s="8"/>
+      <c r="E574" s="8"/>
+    </row>
+    <row r="575" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C575" s="8"/>
+      <c r="D575" s="8"/>
+      <c r="E575" s="8"/>
+    </row>
+    <row r="576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C576" s="8"/>
+      <c r="D576" s="8"/>
+      <c r="E576" s="8"/>
+    </row>
+    <row r="577" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C577" s="8"/>
+      <c r="D577" s="8"/>
+      <c r="E577" s="8"/>
+    </row>
+    <row r="578" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C578" s="8"/>
+      <c r="D578" s="8"/>
+      <c r="E578" s="8"/>
+    </row>
+    <row r="579" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C579" s="8"/>
+      <c r="D579" s="8"/>
+      <c r="E579" s="8"/>
+    </row>
+    <row r="580" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C580" s="8"/>
+      <c r="D580" s="8"/>
+      <c r="E580" s="8"/>
+    </row>
+    <row r="581" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C581" s="8"/>
+      <c r="D581" s="8"/>
+      <c r="E581" s="8"/>
+    </row>
+    <row r="582" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C582" s="8"/>
+      <c r="D582" s="8"/>
+      <c r="E582" s="8"/>
+    </row>
+    <row r="583" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C583" s="8"/>
+      <c r="D583" s="8"/>
+      <c r="E583" s="8"/>
+    </row>
+    <row r="584" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C584" s="8"/>
+      <c r="D584" s="8"/>
+      <c r="E584" s="8"/>
+    </row>
+    <row r="585" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C585" s="8"/>
+      <c r="D585" s="8"/>
+      <c r="E585" s="8"/>
+    </row>
+    <row r="586" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C586" s="8"/>
+      <c r="D586" s="8"/>
+      <c r="E586" s="8"/>
+    </row>
+    <row r="587" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C587" s="8"/>
+      <c r="D587" s="8"/>
+      <c r="E587" s="8"/>
+    </row>
+    <row r="588" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C588" s="8"/>
+      <c r="D588" s="8"/>
+      <c r="E588" s="8"/>
+    </row>
+    <row r="589" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C589" s="8"/>
+      <c r="D589" s="8"/>
+      <c r="E589" s="8"/>
+    </row>
+    <row r="590" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C590" s="8"/>
+      <c r="D590" s="8"/>
+      <c r="E590" s="8"/>
+    </row>
+    <row r="591" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C591" s="8"/>
+      <c r="D591" s="8"/>
+      <c r="E591" s="8"/>
+    </row>
+    <row r="592" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C592" s="8"/>
+      <c r="D592" s="8"/>
+      <c r="E592" s="8"/>
+    </row>
+    <row r="593" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C593" s="8"/>
+      <c r="D593" s="8"/>
+      <c r="E593" s="8"/>
+    </row>
+    <row r="594" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C594" s="8"/>
+      <c r="D594" s="8"/>
+      <c r="E594" s="8"/>
+    </row>
+    <row r="595" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C595" s="8"/>
+      <c r="D595" s="8"/>
+      <c r="E595" s="8"/>
+    </row>
+    <row r="596" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C596" s="8"/>
+      <c r="D596" s="8"/>
+      <c r="E596" s="8"/>
+    </row>
+    <row r="597" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C597" s="8"/>
+      <c r="D597" s="8"/>
+      <c r="E597" s="8"/>
+    </row>
+    <row r="598" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C598" s="8"/>
+      <c r="D598" s="8"/>
+      <c r="E598" s="8"/>
+    </row>
+    <row r="599" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C599" s="8"/>
+      <c r="D599" s="8"/>
+      <c r="E599" s="8"/>
+    </row>
+    <row r="600" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C600" s="8"/>
+      <c r="D600" s="8"/>
+      <c r="E600" s="8"/>
+    </row>
+    <row r="601" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C601" s="8"/>
+      <c r="D601" s="8"/>
+      <c r="E601" s="8"/>
+    </row>
+    <row r="602" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C602" s="8"/>
+      <c r="D602" s="8"/>
+      <c r="E602" s="8"/>
+    </row>
+    <row r="603" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C603" s="8"/>
+      <c r="D603" s="8"/>
+      <c r="E603" s="8"/>
+    </row>
+    <row r="604" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C604" s="8"/>
+      <c r="D604" s="8"/>
+      <c r="E604" s="8"/>
+    </row>
+    <row r="605" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C605" s="8"/>
+      <c r="D605" s="8"/>
+      <c r="E605" s="8"/>
+    </row>
+    <row r="606" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C606" s="8"/>
+      <c r="D606" s="8"/>
+      <c r="E606" s="8"/>
+    </row>
+    <row r="607" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C607" s="8"/>
+      <c r="D607" s="8"/>
+      <c r="E607" s="8"/>
+    </row>
+    <row r="608" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C608" s="8"/>
+      <c r="D608" s="8"/>
+      <c r="E608" s="8"/>
+    </row>
+    <row r="609" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C609" s="8"/>
+      <c r="D609" s="8"/>
+      <c r="E609" s="8"/>
+    </row>
+    <row r="610" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C610" s="8"/>
+      <c r="D610" s="8"/>
+      <c r="E610" s="8"/>
+    </row>
+    <row r="611" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C611" s="8"/>
+      <c r="D611" s="8"/>
+      <c r="E611" s="8"/>
+    </row>
+    <row r="612" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C612" s="8"/>
+      <c r="D612" s="8"/>
+      <c r="E612" s="8"/>
+    </row>
+    <row r="613" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C613" s="8"/>
+      <c r="D613" s="8"/>
+      <c r="E613" s="8"/>
+    </row>
+    <row r="614" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C614" s="8"/>
+      <c r="D614" s="8"/>
+      <c r="E614" s="8"/>
+    </row>
+    <row r="615" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C615" s="8"/>
+      <c r="D615" s="8"/>
+      <c r="E615" s="8"/>
+    </row>
+    <row r="616" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C616" s="8"/>
+      <c r="D616" s="8"/>
+      <c r="E616" s="8"/>
+    </row>
+    <row r="617" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C617" s="8"/>
+      <c r="D617" s="8"/>
+      <c r="E617" s="8"/>
+    </row>
+    <row r="618" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C618" s="8"/>
+      <c r="D618" s="8"/>
+      <c r="E618" s="8"/>
+    </row>
+    <row r="619" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C619" s="8"/>
+      <c r="D619" s="8"/>
+      <c r="E619" s="8"/>
+    </row>
+    <row r="620" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C620" s="8"/>
+      <c r="D620" s="8"/>
+      <c r="E620" s="8"/>
+    </row>
+    <row r="621" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C621" s="8"/>
+      <c r="D621" s="8"/>
+      <c r="E621" s="8"/>
+    </row>
+    <row r="622" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C622" s="8"/>
+      <c r="D622" s="8"/>
+      <c r="E622" s="8"/>
+    </row>
+    <row r="623" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C623" s="8"/>
+      <c r="D623" s="8"/>
+      <c r="E623" s="8"/>
+    </row>
+    <row r="624" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C624" s="8"/>
+      <c r="D624" s="8"/>
+      <c r="E624" s="8"/>
+    </row>
+    <row r="625" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C625" s="8"/>
+      <c r="D625" s="8"/>
+      <c r="E625" s="8"/>
+    </row>
+    <row r="626" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C626" s="8"/>
+      <c r="D626" s="8"/>
+      <c r="E626" s="8"/>
+    </row>
+    <row r="627" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C627" s="8"/>
+      <c r="D627" s="8"/>
+      <c r="E627" s="8"/>
+    </row>
+    <row r="628" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C628" s="8"/>
+      <c r="D628" s="8"/>
+      <c r="E628" s="8"/>
+    </row>
+    <row r="629" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C629" s="8"/>
+      <c r="D629" s="8"/>
+      <c r="E629" s="8"/>
+    </row>
+    <row r="630" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C630" s="8"/>
+      <c r="D630" s="8"/>
+      <c r="E630" s="8"/>
+    </row>
+    <row r="631" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C631" s="8"/>
+      <c r="D631" s="8"/>
+      <c r="E631" s="8"/>
+    </row>
+    <row r="632" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C632" s="8"/>
+      <c r="D632" s="8"/>
+      <c r="E632" s="8"/>
+    </row>
+    <row r="633" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C633" s="8"/>
+      <c r="D633" s="8"/>
+      <c r="E633" s="8"/>
+    </row>
+    <row r="634" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C634" s="8"/>
+      <c r="D634" s="8"/>
+      <c r="E634" s="8"/>
+    </row>
+    <row r="635" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C635" s="8"/>
+      <c r="D635" s="8"/>
+      <c r="E635" s="8"/>
+    </row>
+    <row r="636" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C636" s="8"/>
+      <c r="D636" s="8"/>
+      <c r="E636" s="8"/>
+    </row>
+    <row r="637" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C637" s="8"/>
+      <c r="D637" s="8"/>
+      <c r="E637" s="8"/>
+    </row>
+    <row r="638" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C638" s="8"/>
+      <c r="D638" s="8"/>
+      <c r="E638" s="8"/>
+    </row>
+    <row r="639" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C639" s="8"/>
+      <c r="D639" s="8"/>
+      <c r="E639" s="8"/>
+    </row>
+    <row r="640" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C640" s="8"/>
+      <c r="D640" s="8"/>
+      <c r="E640" s="8"/>
+    </row>
+    <row r="641" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C641" s="8"/>
+      <c r="D641" s="8"/>
+      <c r="E641" s="8"/>
+    </row>
+    <row r="642" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C642" s="8"/>
+      <c r="D642" s="8"/>
+      <c r="E642" s="8"/>
+    </row>
+    <row r="643" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C643" s="8"/>
+      <c r="D643" s="8"/>
+      <c r="E643" s="8"/>
+    </row>
+    <row r="644" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C644" s="8"/>
+      <c r="D644" s="8"/>
+      <c r="E644" s="8"/>
+    </row>
+    <row r="645" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C645" s="8"/>
+      <c r="D645" s="8"/>
+      <c r="E645" s="8"/>
+    </row>
+    <row r="646" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C646" s="8"/>
+      <c r="D646" s="8"/>
+      <c r="E646" s="8"/>
+    </row>
+    <row r="647" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C647" s="8"/>
+      <c r="D647" s="8"/>
+      <c r="E647" s="8"/>
+    </row>
+    <row r="648" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C648" s="8"/>
+      <c r="D648" s="8"/>
+      <c r="E648" s="8"/>
+    </row>
+    <row r="649" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C649" s="8"/>
+      <c r="D649" s="8"/>
+      <c r="E649" s="8"/>
+    </row>
+    <row r="650" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C650" s="8"/>
+      <c r="D650" s="8"/>
+      <c r="E650" s="8"/>
+    </row>
+    <row r="651" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C651" s="8"/>
+      <c r="D651" s="8"/>
+      <c r="E651" s="8"/>
+    </row>
+    <row r="652" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C652" s="8"/>
+      <c r="D652" s="8"/>
+      <c r="E652" s="8"/>
+    </row>
+    <row r="653" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C653" s="8"/>
+      <c r="D653" s="8"/>
+      <c r="E653" s="8"/>
+    </row>
+    <row r="654" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C654" s="8"/>
+      <c r="D654" s="8"/>
+      <c r="E654" s="8"/>
+    </row>
+    <row r="655" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C655" s="8"/>
+      <c r="D655" s="8"/>
+      <c r="E655" s="8"/>
+    </row>
+    <row r="656" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C656" s="8"/>
+      <c r="D656" s="8"/>
+      <c r="E656" s="8"/>
+    </row>
+    <row r="657" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C657" s="8"/>
+      <c r="D657" s="8"/>
+      <c r="E657" s="8"/>
+    </row>
+    <row r="658" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C658" s="8"/>
+      <c r="D658" s="8"/>
+      <c r="E658" s="8"/>
+    </row>
+    <row r="659" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C659" s="8"/>
+      <c r="D659" s="8"/>
+      <c r="E659" s="8"/>
+    </row>
+    <row r="660" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C660" s="8"/>
+      <c r="D660" s="8"/>
+      <c r="E660" s="8"/>
+    </row>
+    <row r="661" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C661" s="8"/>
+      <c r="D661" s="8"/>
+      <c r="E661" s="8"/>
+    </row>
+    <row r="662" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C662" s="8"/>
+      <c r="D662" s="8"/>
+      <c r="E662" s="8"/>
+    </row>
+    <row r="663" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C663" s="8"/>
+      <c r="D663" s="8"/>
+      <c r="E663" s="8"/>
+    </row>
+    <row r="664" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C664" s="8"/>
+      <c r="D664" s="8"/>
+      <c r="E664" s="8"/>
+    </row>
+    <row r="665" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C665" s="8"/>
+      <c r="D665" s="8"/>
+      <c r="E665" s="8"/>
+    </row>
+    <row r="666" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C666" s="8"/>
+      <c r="D666" s="8"/>
+      <c r="E666" s="8"/>
+    </row>
+    <row r="667" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C667" s="8"/>
+      <c r="D667" s="8"/>
+      <c r="E667" s="8"/>
+    </row>
+    <row r="668" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C668" s="8"/>
+      <c r="D668" s="8"/>
+      <c r="E668" s="8"/>
+    </row>
+    <row r="669" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C669" s="8"/>
+      <c r="D669" s="8"/>
+      <c r="E669" s="8"/>
+    </row>
+    <row r="670" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C670" s="8"/>
+      <c r="D670" s="8"/>
+      <c r="E670" s="8"/>
+    </row>
+    <row r="671" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C671" s="8"/>
+      <c r="D671" s="8"/>
+      <c r="E671" s="8"/>
+    </row>
+    <row r="672" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C672" s="8"/>
+      <c r="D672" s="8"/>
+      <c r="E672" s="8"/>
+    </row>
+    <row r="673" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C673" s="8"/>
+      <c r="D673" s="8"/>
+      <c r="E673" s="8"/>
+    </row>
+    <row r="674" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C674" s="8"/>
+      <c r="D674" s="8"/>
+      <c r="E674" s="8"/>
+    </row>
+    <row r="675" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C675" s="8"/>
+      <c r="D675" s="8"/>
+      <c r="E675" s="8"/>
+    </row>
+    <row r="676" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C676" s="8"/>
+      <c r="D676" s="8"/>
+      <c r="E676" s="8"/>
+    </row>
+    <row r="677" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C677" s="8"/>
+      <c r="D677" s="8"/>
+      <c r="E677" s="8"/>
+    </row>
+    <row r="678" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C678" s="8"/>
+      <c r="D678" s="8"/>
+      <c r="E678" s="8"/>
+    </row>
+    <row r="679" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C679" s="8"/>
+      <c r="D679" s="8"/>
+      <c r="E679" s="8"/>
+    </row>
+    <row r="680" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C680" s="8"/>
+      <c r="D680" s="8"/>
+      <c r="E680" s="8"/>
+    </row>
+    <row r="681" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C681" s="8"/>
+      <c r="D681" s="8"/>
+      <c r="E681" s="8"/>
+    </row>
+    <row r="682" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C682" s="8"/>
+      <c r="D682" s="8"/>
+      <c r="E682" s="8"/>
+    </row>
+    <row r="683" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C683" s="8"/>
+      <c r="D683" s="8"/>
+      <c r="E683" s="8"/>
+    </row>
+    <row r="684" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C684" s="8"/>
+      <c r="D684" s="8"/>
+      <c r="E684" s="8"/>
+    </row>
+    <row r="685" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C685" s="8"/>
+      <c r="D685" s="8"/>
+      <c r="E685" s="8"/>
+    </row>
+    <row r="686" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C686" s="8"/>
+      <c r="D686" s="8"/>
+      <c r="E686" s="8"/>
+    </row>
+    <row r="687" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C687" s="8"/>
+      <c r="D687" s="8"/>
+      <c r="E687" s="8"/>
+    </row>
+    <row r="688" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C688" s="8"/>
+      <c r="D688" s="8"/>
+      <c r="E688" s="8"/>
+    </row>
+    <row r="689" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C689" s="8"/>
+      <c r="D689" s="8"/>
+      <c r="E689" s="8"/>
+    </row>
+    <row r="690" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C690" s="8"/>
+      <c r="D690" s="8"/>
+      <c r="E690" s="8"/>
+    </row>
+    <row r="691" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C691" s="8"/>
+      <c r="D691" s="8"/>
+      <c r="E691" s="8"/>
+    </row>
+    <row r="692" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C692" s="8"/>
+      <c r="D692" s="8"/>
+      <c r="E692" s="8"/>
+    </row>
+    <row r="693" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C693" s="8"/>
+      <c r="D693" s="8"/>
+      <c r="E693" s="8"/>
+    </row>
+    <row r="694" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C694" s="8"/>
+      <c r="D694" s="8"/>
+      <c r="E694" s="8"/>
+    </row>
+    <row r="695" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C695" s="8"/>
+      <c r="D695" s="8"/>
+      <c r="E695" s="8"/>
+    </row>
+    <row r="696" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C696" s="8"/>
+      <c r="D696" s="8"/>
+      <c r="E696" s="8"/>
+    </row>
+    <row r="697" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C697" s="8"/>
+      <c r="D697" s="8"/>
+      <c r="E697" s="8"/>
+    </row>
+    <row r="698" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C698" s="8"/>
+      <c r="D698" s="8"/>
+      <c r="E698" s="8"/>
+    </row>
+    <row r="699" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C699" s="8"/>
+      <c r="D699" s="8"/>
+      <c r="E699" s="8"/>
+    </row>
+    <row r="700" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C700" s="8"/>
+      <c r="D700" s="8"/>
+      <c r="E700" s="8"/>
+    </row>
+    <row r="701" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C701" s="8"/>
+      <c r="D701" s="8"/>
+      <c r="E701" s="8"/>
+    </row>
+    <row r="702" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C702" s="8"/>
+      <c r="D702" s="8"/>
+      <c r="E702" s="8"/>
+    </row>
+    <row r="703" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C703" s="8"/>
+      <c r="D703" s="8"/>
+      <c r="E703" s="8"/>
+    </row>
+    <row r="704" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C704" s="8"/>
+      <c r="D704" s="8"/>
+      <c r="E704" s="8"/>
+    </row>
+    <row r="705" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C705" s="8"/>
+      <c r="D705" s="8"/>
+      <c r="E705" s="8"/>
+    </row>
+    <row r="706" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C706" s="8"/>
+      <c r="D706" s="8"/>
+      <c r="E706" s="8"/>
+    </row>
+    <row r="707" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C707" s="8"/>
+      <c r="D707" s="8"/>
+      <c r="E707" s="8"/>
+    </row>
+    <row r="708" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C708" s="8"/>
+      <c r="D708" s="8"/>
+      <c r="E708" s="8"/>
+    </row>
+    <row r="709" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C709" s="8"/>
+      <c r="D709" s="8"/>
+      <c r="E709" s="8"/>
+    </row>
+    <row r="710" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C710" s="8"/>
+      <c r="D710" s="8"/>
+      <c r="E710" s="8"/>
+    </row>
+    <row r="711" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C711" s="8"/>
+      <c r="D711" s="8"/>
+      <c r="E711" s="8"/>
+    </row>
+    <row r="712" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C712" s="8"/>
+      <c r="D712" s="8"/>
+      <c r="E712" s="8"/>
+    </row>
+    <row r="713" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C713" s="8"/>
+      <c r="D713" s="8"/>
+      <c r="E713" s="8"/>
+    </row>
+    <row r="714" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C714" s="8"/>
+      <c r="D714" s="8"/>
+      <c r="E714" s="8"/>
+    </row>
+    <row r="715" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C715" s="8"/>
+      <c r="D715" s="8"/>
+      <c r="E715" s="8"/>
+    </row>
+    <row r="716" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C716" s="8"/>
+      <c r="D716" s="8"/>
+      <c r="E716" s="8"/>
+    </row>
+    <row r="717" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C717" s="8"/>
+      <c r="D717" s="8"/>
+      <c r="E717" s="8"/>
+    </row>
+    <row r="718" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C718" s="8"/>
+      <c r="D718" s="8"/>
+      <c r="E718" s="8"/>
+    </row>
+    <row r="719" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C719" s="8"/>
+      <c r="D719" s="8"/>
+      <c r="E719" s="8"/>
+    </row>
+    <row r="720" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C720" s="8"/>
+      <c r="D720" s="8"/>
+      <c r="E720" s="8"/>
+    </row>
+    <row r="721" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C721" s="8"/>
+      <c r="D721" s="8"/>
+      <c r="E721" s="8"/>
+    </row>
+    <row r="722" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C722" s="8"/>
+      <c r="D722" s="8"/>
+      <c r="E722" s="8"/>
+    </row>
+    <row r="723" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C723" s="8"/>
+      <c r="D723" s="8"/>
+      <c r="E723" s="8"/>
+    </row>
+    <row r="724" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C724" s="8"/>
+      <c r="D724" s="8"/>
+      <c r="E724" s="8"/>
+    </row>
+    <row r="725" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C725" s="8"/>
+      <c r="D725" s="8"/>
+      <c r="E725" s="8"/>
+    </row>
+    <row r="726" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C726" s="8"/>
+      <c r="D726" s="8"/>
+      <c r="E726" s="8"/>
+    </row>
+    <row r="727" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C727" s="8"/>
+      <c r="D727" s="8"/>
+      <c r="E727" s="8"/>
+    </row>
+    <row r="728" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C728" s="8"/>
+      <c r="D728" s="8"/>
+      <c r="E728" s="8"/>
+    </row>
+    <row r="729" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C729" s="8"/>
+      <c r="D729" s="8"/>
+      <c r="E729" s="8"/>
+    </row>
+    <row r="730" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C730" s="8"/>
+      <c r="D730" s="8"/>
+      <c r="E730" s="8"/>
+    </row>
+    <row r="731" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C731" s="8"/>
+      <c r="D731" s="8"/>
+      <c r="E731" s="8"/>
+    </row>
+    <row r="732" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C732" s="8"/>
+      <c r="D732" s="8"/>
+      <c r="E732" s="8"/>
+    </row>
+    <row r="733" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C733" s="8"/>
+      <c r="D733" s="8"/>
+      <c r="E733" s="8"/>
+    </row>
+    <row r="734" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C734" s="8"/>
+      <c r="D734" s="8"/>
+      <c r="E734" s="8"/>
+    </row>
+    <row r="735" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C735" s="8"/>
+      <c r="D735" s="8"/>
+      <c r="E735" s="8"/>
+    </row>
+    <row r="736" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C736" s="8"/>
+      <c r="D736" s="8"/>
+      <c r="E736" s="8"/>
+    </row>
+    <row r="737" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C737" s="8"/>
+      <c r="D737" s="8"/>
+      <c r="E737" s="8"/>
+    </row>
+    <row r="738" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C738" s="8"/>
+      <c r="D738" s="8"/>
+      <c r="E738" s="8"/>
+    </row>
+    <row r="739" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C739" s="8"/>
+      <c r="D739" s="8"/>
+      <c r="E739" s="8"/>
+    </row>
+    <row r="740" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C740" s="8"/>
+      <c r="D740" s="8"/>
+      <c r="E740" s="8"/>
+    </row>
+    <row r="741" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C741" s="8"/>
+      <c r="D741" s="8"/>
+      <c r="E741" s="8"/>
+    </row>
+    <row r="742" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C742" s="8"/>
+      <c r="D742" s="8"/>
+      <c r="E742" s="8"/>
+    </row>
+    <row r="743" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C743" s="8"/>
+      <c r="D743" s="8"/>
+      <c r="E743" s="8"/>
+    </row>
+    <row r="744" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C744" s="8"/>
+      <c r="D744" s="8"/>
+      <c r="E744" s="8"/>
+    </row>
+    <row r="745" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C745" s="8"/>
+      <c r="D745" s="8"/>
+      <c r="E745" s="8"/>
+    </row>
+    <row r="746" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C746" s="8"/>
+      <c r="D746" s="8"/>
+      <c r="E746" s="8"/>
+    </row>
+    <row r="747" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C747" s="8"/>
+      <c r="D747" s="8"/>
+      <c r="E747" s="8"/>
+    </row>
+    <row r="748" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C748" s="8"/>
+      <c r="D748" s="8"/>
+      <c r="E748" s="8"/>
+    </row>
+    <row r="749" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C749" s="8"/>
+      <c r="D749" s="8"/>
+      <c r="E749" s="8"/>
+    </row>
+    <row r="750" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C750" s="8"/>
+      <c r="D750" s="8"/>
+      <c r="E750" s="8"/>
+    </row>
+    <row r="751" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C751" s="8"/>
+      <c r="D751" s="8"/>
+      <c r="E751" s="8"/>
+    </row>
+    <row r="752" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C752" s="8"/>
+      <c r="D752" s="8"/>
+      <c r="E752" s="8"/>
+    </row>
+    <row r="753" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C753" s="8"/>
+      <c r="D753" s="8"/>
+      <c r="E753" s="8"/>
+    </row>
+    <row r="754" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C754" s="8"/>
+      <c r="D754" s="8"/>
+      <c r="E754" s="8"/>
+    </row>
+    <row r="755" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C755" s="8"/>
+      <c r="D755" s="8"/>
+      <c r="E755" s="8"/>
+    </row>
+    <row r="756" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C756" s="8"/>
+      <c r="D756" s="8"/>
+      <c r="E756" s="8"/>
+    </row>
+    <row r="757" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C757" s="8"/>
+      <c r="D757" s="8"/>
+      <c r="E757" s="8"/>
+    </row>
+    <row r="758" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C758" s="8"/>
+      <c r="D758" s="8"/>
+      <c r="E758" s="8"/>
+    </row>
+    <row r="759" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C759" s="8"/>
+      <c r="D759" s="8"/>
+      <c r="E759" s="8"/>
+    </row>
+    <row r="760" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C760" s="8"/>
+      <c r="D760" s="8"/>
+      <c r="E760" s="8"/>
+    </row>
+    <row r="761" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C761" s="8"/>
+      <c r="D761" s="8"/>
+      <c r="E761" s="8"/>
+    </row>
+    <row r="762" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C762" s="8"/>
+      <c r="D762" s="8"/>
+      <c r="E762" s="8"/>
+    </row>
+    <row r="763" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C763" s="8"/>
+      <c r="D763" s="8"/>
+      <c r="E763" s="8"/>
+    </row>
+    <row r="764" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C764" s="8"/>
+      <c r="D764" s="8"/>
+      <c r="E764" s="8"/>
+    </row>
+    <row r="765" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C765" s="8"/>
+      <c r="D765" s="8"/>
+      <c r="E765" s="8"/>
+    </row>
+    <row r="766" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C766" s="8"/>
+      <c r="D766" s="8"/>
+      <c r="E766" s="8"/>
+    </row>
+    <row r="767" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C767" s="8"/>
+      <c r="D767" s="8"/>
+      <c r="E767" s="8"/>
+    </row>
+    <row r="768" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C768" s="8"/>
+      <c r="D768" s="8"/>
+      <c r="E768" s="8"/>
+    </row>
+    <row r="769" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C769" s="8"/>
+      <c r="D769" s="8"/>
+      <c r="E769" s="8"/>
+    </row>
+    <row r="770" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C770" s="8"/>
+      <c r="D770" s="8"/>
+      <c r="E770" s="8"/>
+    </row>
+    <row r="771" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C771" s="8"/>
+      <c r="D771" s="8"/>
+      <c r="E771" s="8"/>
+    </row>
+    <row r="772" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C772" s="8"/>
+      <c r="D772" s="8"/>
+      <c r="E772" s="8"/>
+    </row>
+    <row r="773" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C773" s="8"/>
+      <c r="D773" s="8"/>
+      <c r="E773" s="8"/>
+    </row>
+    <row r="774" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C774" s="8"/>
+      <c r="D774" s="8"/>
+      <c r="E774" s="8"/>
+    </row>
+    <row r="775" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C775" s="8"/>
+      <c r="D775" s="8"/>
+      <c r="E775" s="8"/>
+    </row>
+    <row r="776" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C776" s="8"/>
+      <c r="D776" s="8"/>
+      <c r="E776" s="8"/>
+    </row>
+    <row r="777" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C777" s="8"/>
+      <c r="D777" s="8"/>
+      <c r="E777" s="8"/>
+    </row>
+    <row r="778" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C778" s="8"/>
+      <c r="D778" s="8"/>
+      <c r="E778" s="8"/>
+    </row>
+    <row r="779" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C779" s="8"/>
+      <c r="D779" s="8"/>
+      <c r="E779" s="8"/>
+    </row>
+    <row r="780" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C780" s="8"/>
+      <c r="D780" s="8"/>
+      <c r="E780" s="8"/>
+    </row>
+    <row r="781" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C781" s="8"/>
+      <c r="D781" s="8"/>
+      <c r="E781" s="8"/>
+    </row>
+    <row r="782" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C782" s="8"/>
+      <c r="D782" s="8"/>
+      <c r="E782" s="8"/>
+    </row>
+    <row r="783" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C783" s="8"/>
+      <c r="D783" s="8"/>
+      <c r="E783" s="8"/>
+    </row>
+    <row r="784" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C784" s="8"/>
+      <c r="D784" s="8"/>
+      <c r="E784" s="8"/>
+    </row>
+    <row r="785" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C785" s="8"/>
+      <c r="D785" s="8"/>
+      <c r="E785" s="8"/>
+    </row>
+    <row r="786" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C786" s="8"/>
+      <c r="D786" s="8"/>
+      <c r="E786" s="8"/>
+    </row>
+    <row r="787" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C787" s="8"/>
+      <c r="D787" s="8"/>
+      <c r="E787" s="8"/>
+    </row>
+    <row r="788" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C788" s="8"/>
+      <c r="D788" s="8"/>
+      <c r="E788" s="8"/>
+    </row>
+    <row r="789" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C789" s="8"/>
+      <c r="D789" s="8"/>
+      <c r="E789" s="8"/>
+    </row>
+    <row r="790" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C790" s="8"/>
+      <c r="D790" s="8"/>
+      <c r="E790" s="8"/>
+    </row>
+    <row r="791" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C791" s="8"/>
+      <c r="D791" s="8"/>
+      <c r="E791" s="8"/>
+    </row>
+    <row r="792" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C792" s="8"/>
+      <c r="D792" s="8"/>
+      <c r="E792" s="8"/>
+    </row>
+    <row r="793" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C793" s="8"/>
+      <c r="D793" s="8"/>
+      <c r="E793" s="8"/>
+    </row>
+    <row r="794" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C794" s="8"/>
+      <c r="D794" s="8"/>
+      <c r="E794" s="8"/>
+    </row>
+    <row r="795" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C795" s="8"/>
+      <c r="D795" s="8"/>
+      <c r="E795" s="8"/>
+    </row>
+    <row r="796" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C796" s="8"/>
+      <c r="D796" s="8"/>
+      <c r="E796" s="8"/>
+    </row>
+    <row r="797" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C797" s="8"/>
+      <c r="D797" s="8"/>
+      <c r="E797" s="8"/>
+    </row>
+    <row r="798" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C798" s="8"/>
+      <c r="D798" s="8"/>
+      <c r="E798" s="8"/>
+    </row>
+    <row r="799" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C799" s="8"/>
+      <c r="D799" s="8"/>
+      <c r="E799" s="8"/>
+    </row>
+    <row r="800" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C800" s="8"/>
+      <c r="D800" s="8"/>
+      <c r="E800" s="8"/>
+    </row>
+    <row r="801" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C801" s="8"/>
+      <c r="D801" s="8"/>
+      <c r="E801" s="8"/>
+    </row>
+    <row r="802" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C802" s="8"/>
+      <c r="D802" s="8"/>
+      <c r="E802" s="8"/>
+    </row>
+    <row r="803" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C803" s="8"/>
+      <c r="D803" s="8"/>
+      <c r="E803" s="8"/>
+    </row>
+    <row r="804" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C804" s="8"/>
+      <c r="D804" s="8"/>
+      <c r="E804" s="8"/>
+    </row>
+    <row r="805" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C805" s="8"/>
+      <c r="D805" s="8"/>
+      <c r="E805" s="8"/>
+    </row>
+    <row r="806" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C806" s="8"/>
+      <c r="D806" s="8"/>
+      <c r="E806" s="8"/>
+    </row>
+    <row r="807" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C807" s="8"/>
+      <c r="D807" s="8"/>
+      <c r="E807" s="8"/>
+    </row>
+    <row r="808" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C808" s="8"/>
+      <c r="D808" s="8"/>
+      <c r="E808" s="8"/>
+    </row>
+    <row r="809" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C809" s="8"/>
+      <c r="D809" s="8"/>
+      <c r="E809" s="8"/>
+    </row>
+    <row r="810" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C810" s="8"/>
+      <c r="D810" s="8"/>
+      <c r="E810" s="8"/>
+    </row>
+    <row r="811" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C811" s="8"/>
+      <c r="D811" s="8"/>
+      <c r="E811" s="8"/>
+    </row>
+    <row r="812" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C812" s="8"/>
+      <c r="D812" s="8"/>
+      <c r="E812" s="8"/>
+    </row>
+    <row r="813" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C813" s="8"/>
+      <c r="D813" s="8"/>
+      <c r="E813" s="8"/>
+    </row>
+    <row r="814" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C814" s="8"/>
+      <c r="D814" s="8"/>
+      <c r="E814" s="8"/>
+    </row>
+    <row r="815" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C815" s="8"/>
+      <c r="D815" s="8"/>
+      <c r="E815" s="8"/>
+    </row>
+    <row r="816" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C816" s="8"/>
+      <c r="D816" s="8"/>
+      <c r="E816" s="8"/>
+    </row>
+    <row r="817" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C817" s="8"/>
+      <c r="D817" s="8"/>
+      <c r="E817" s="8"/>
+    </row>
+    <row r="818" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C818" s="8"/>
+      <c r="D818" s="8"/>
+      <c r="E818" s="8"/>
+    </row>
+    <row r="819" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C819" s="8"/>
+      <c r="D819" s="8"/>
+      <c r="E819" s="8"/>
+    </row>
+    <row r="820" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C820" s="8"/>
+      <c r="D820" s="8"/>
+      <c r="E820" s="8"/>
+    </row>
+    <row r="821" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C821" s="8"/>
+      <c r="D821" s="8"/>
+      <c r="E821" s="8"/>
+    </row>
+    <row r="822" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C822" s="8"/>
+      <c r="D822" s="8"/>
+      <c r="E822" s="8"/>
+    </row>
+    <row r="823" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C823" s="8"/>
+      <c r="D823" s="8"/>
+      <c r="E823" s="8"/>
+    </row>
+    <row r="824" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C824" s="8"/>
+      <c r="D824" s="8"/>
+      <c r="E824" s="8"/>
+    </row>
+    <row r="825" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C825" s="8"/>
+      <c r="D825" s="8"/>
+      <c r="E825" s="8"/>
+    </row>
+    <row r="826" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C826" s="8"/>
+      <c r="D826" s="8"/>
+      <c r="E826" s="8"/>
+    </row>
+    <row r="827" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C827" s="8"/>
+      <c r="D827" s="8"/>
+      <c r="E827" s="8"/>
+    </row>
+    <row r="828" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C828" s="8"/>
+      <c r="D828" s="8"/>
+      <c r="E828" s="8"/>
+    </row>
+    <row r="829" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C829" s="8"/>
+      <c r="D829" s="8"/>
+      <c r="E829" s="8"/>
+    </row>
+    <row r="830" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C830" s="8"/>
+      <c r="D830" s="8"/>
+      <c r="E830" s="8"/>
+    </row>
+    <row r="831" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C831" s="8"/>
+      <c r="D831" s="8"/>
+      <c r="E831" s="8"/>
+    </row>
+    <row r="832" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C832" s="8"/>
+      <c r="D832" s="8"/>
+      <c r="E832" s="8"/>
+    </row>
+    <row r="833" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C833" s="8"/>
+      <c r="D833" s="8"/>
+      <c r="E833" s="8"/>
+    </row>
+    <row r="834" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C834" s="8"/>
+      <c r="D834" s="8"/>
+      <c r="E834" s="8"/>
+    </row>
+    <row r="835" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C835" s="8"/>
+      <c r="D835" s="8"/>
+      <c r="E835" s="8"/>
+    </row>
+    <row r="836" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C836" s="8"/>
+      <c r="D836" s="8"/>
+      <c r="E836" s="8"/>
+    </row>
+    <row r="837" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C837" s="8"/>
+      <c r="D837" s="8"/>
+      <c r="E837" s="8"/>
+    </row>
+    <row r="838" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C838" s="8"/>
+      <c r="D838" s="8"/>
+      <c r="E838" s="8"/>
+    </row>
+    <row r="839" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C839" s="8"/>
+      <c r="D839" s="8"/>
+      <c r="E839" s="8"/>
+    </row>
+    <row r="840" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C840" s="8"/>
+      <c r="D840" s="8"/>
+      <c r="E840" s="8"/>
+    </row>
+    <row r="841" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C841" s="8"/>
+      <c r="D841" s="8"/>
+      <c r="E841" s="8"/>
+    </row>
+    <row r="842" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C842" s="8"/>
+      <c r="D842" s="8"/>
+      <c r="E842" s="8"/>
+    </row>
+    <row r="843" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C843" s="8"/>
+      <c r="D843" s="8"/>
+      <c r="E843" s="8"/>
+    </row>
+    <row r="844" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C844" s="8"/>
+      <c r="D844" s="8"/>
+      <c r="E844" s="8"/>
+    </row>
+    <row r="845" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C845" s="8"/>
+      <c r="D845" s="8"/>
+      <c r="E845" s="8"/>
+    </row>
+    <row r="846" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C846" s="8"/>
+      <c r="D846" s="8"/>
+      <c r="E846" s="8"/>
+    </row>
+    <row r="847" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C847" s="8"/>
+      <c r="D847" s="8"/>
+      <c r="E847" s="8"/>
+    </row>
+    <row r="848" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C848" s="8"/>
+      <c r="D848" s="8"/>
+      <c r="E848" s="8"/>
+    </row>
+    <row r="849" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C849" s="8"/>
+      <c r="D849" s="8"/>
+      <c r="E849" s="8"/>
+    </row>
+    <row r="850" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C850" s="8"/>
+      <c r="D850" s="8"/>
+      <c r="E850" s="8"/>
+    </row>
+    <row r="851" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C851" s="8"/>
+      <c r="D851" s="8"/>
+      <c r="E851" s="8"/>
+    </row>
+    <row r="852" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C852" s="8"/>
+      <c r="D852" s="8"/>
+      <c r="E852" s="8"/>
+    </row>
+    <row r="853" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C853" s="8"/>
+      <c r="D853" s="8"/>
+      <c r="E853" s="8"/>
+    </row>
+    <row r="854" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C854" s="8"/>
+      <c r="D854" s="8"/>
+      <c r="E854" s="8"/>
+    </row>
+    <row r="855" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C855" s="8"/>
+      <c r="D855" s="8"/>
+      <c r="E855" s="8"/>
+    </row>
+    <row r="856" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C856" s="8"/>
+      <c r="D856" s="8"/>
+      <c r="E856" s="8"/>
+    </row>
+    <row r="857" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C857" s="8"/>
+      <c r="D857" s="8"/>
+      <c r="E857" s="8"/>
+    </row>
+    <row r="858" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C858" s="8"/>
+      <c r="D858" s="8"/>
+      <c r="E858" s="8"/>
+    </row>
+    <row r="859" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C859" s="8"/>
+      <c r="D859" s="8"/>
+      <c r="E859" s="8"/>
+    </row>
+    <row r="860" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C860" s="8"/>
+      <c r="D860" s="8"/>
+      <c r="E860" s="8"/>
+    </row>
+    <row r="861" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C861" s="8"/>
+      <c r="D861" s="8"/>
+      <c r="E861" s="8"/>
+    </row>
+    <row r="862" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C862" s="8"/>
+      <c r="D862" s="8"/>
+      <c r="E862" s="8"/>
+    </row>
+    <row r="863" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C863" s="8"/>
+      <c r="D863" s="8"/>
+      <c r="E863" s="8"/>
+    </row>
+    <row r="864" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C864" s="8"/>
+      <c r="D864" s="8"/>
+      <c r="E864" s="8"/>
+    </row>
+    <row r="865" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C865" s="8"/>
+      <c r="D865" s="8"/>
+      <c r="E865" s="8"/>
+    </row>
+    <row r="866" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C866" s="8"/>
+      <c r="D866" s="8"/>
+      <c r="E866" s="8"/>
+    </row>
+    <row r="867" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C867" s="8"/>
+      <c r="D867" s="8"/>
+      <c r="E867" s="8"/>
+    </row>
+    <row r="868" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C868" s="8"/>
+      <c r="D868" s="8"/>
+      <c r="E868" s="8"/>
+    </row>
+    <row r="869" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C869" s="8"/>
+      <c r="D869" s="8"/>
+      <c r="E869" s="8"/>
+    </row>
+    <row r="870" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C870" s="8"/>
+      <c r="D870" s="8"/>
+      <c r="E870" s="8"/>
+    </row>
+    <row r="871" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C871" s="8"/>
+      <c r="D871" s="8"/>
+      <c r="E871" s="8"/>
+    </row>
+    <row r="872" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C872" s="8"/>
+      <c r="D872" s="8"/>
+      <c r="E872" s="8"/>
+    </row>
+    <row r="873" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C873" s="8"/>
+      <c r="D873" s="8"/>
+      <c r="E873" s="8"/>
+    </row>
+    <row r="874" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C874" s="8"/>
+      <c r="D874" s="8"/>
+      <c r="E874" s="8"/>
+    </row>
+    <row r="875" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C875" s="8"/>
+      <c r="D875" s="8"/>
+      <c r="E875" s="8"/>
+    </row>
+    <row r="876" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C876" s="8"/>
+      <c r="D876" s="8"/>
+      <c r="E876" s="8"/>
+    </row>
+    <row r="877" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C877" s="8"/>
+      <c r="D877" s="8"/>
+      <c r="E877" s="8"/>
+    </row>
+    <row r="878" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C878" s="8"/>
+      <c r="D878" s="8"/>
+      <c r="E878" s="8"/>
+    </row>
+    <row r="879" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C879" s="8"/>
+      <c r="D879" s="8"/>
+      <c r="E879" s="8"/>
+    </row>
+    <row r="880" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C880" s="8"/>
+      <c r="D880" s="8"/>
+      <c r="E880" s="8"/>
+    </row>
+    <row r="881" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C881" s="8"/>
+      <c r="D881" s="8"/>
+      <c r="E881" s="8"/>
+    </row>
+    <row r="882" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C882" s="8"/>
+      <c r="D882" s="8"/>
+      <c r="E882" s="8"/>
+    </row>
+    <row r="883" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C883" s="8"/>
+      <c r="D883" s="8"/>
+      <c r="E883" s="8"/>
+    </row>
+    <row r="884" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C884" s="8"/>
+      <c r="D884" s="8"/>
+      <c r="E884" s="8"/>
+    </row>
+    <row r="885" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C885" s="8"/>
+      <c r="D885" s="8"/>
+      <c r="E885" s="8"/>
+    </row>
+    <row r="886" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C886" s="8"/>
+      <c r="D886" s="8"/>
+      <c r="E886" s="8"/>
+    </row>
+    <row r="887" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C887" s="8"/>
+      <c r="D887" s="8"/>
+      <c r="E887" s="8"/>
+    </row>
+    <row r="888" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C888" s="8"/>
+      <c r="D888" s="8"/>
+      <c r="E888" s="8"/>
+    </row>
+    <row r="889" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C889" s="8"/>
+      <c r="D889" s="8"/>
+      <c r="E889" s="8"/>
+    </row>
+    <row r="890" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C890" s="8"/>
+      <c r="D890" s="8"/>
+      <c r="E890" s="8"/>
+    </row>
+    <row r="891" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C891" s="8"/>
+      <c r="D891" s="8"/>
+      <c r="E891" s="8"/>
+    </row>
+    <row r="892" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C892" s="8"/>
+      <c r="D892" s="8"/>
+      <c r="E892" s="8"/>
+    </row>
+    <row r="893" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C893" s="8"/>
+      <c r="D893" s="8"/>
+      <c r="E893" s="8"/>
+    </row>
+    <row r="894" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C894" s="8"/>
+      <c r="D894" s="8"/>
+      <c r="E894" s="8"/>
+    </row>
+    <row r="895" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C895" s="8"/>
+      <c r="D895" s="8"/>
+      <c r="E895" s="8"/>
+    </row>
+    <row r="896" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C896" s="8"/>
+      <c r="D896" s="8"/>
+      <c r="E896" s="8"/>
+    </row>
+    <row r="897" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C897" s="8"/>
+      <c r="D897" s="8"/>
+      <c r="E897" s="8"/>
+    </row>
+    <row r="898" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C898" s="8"/>
+      <c r="D898" s="8"/>
+      <c r="E898" s="8"/>
+    </row>
+    <row r="899" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C899" s="8"/>
+      <c r="D899" s="8"/>
+      <c r="E899" s="8"/>
+    </row>
+    <row r="900" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C900" s="8"/>
+      <c r="D900" s="8"/>
+      <c r="E900" s="8"/>
+    </row>
+    <row r="901" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C901" s="8"/>
+      <c r="D901" s="8"/>
+      <c r="E901" s="8"/>
+    </row>
+    <row r="902" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C902" s="8"/>
+      <c r="D902" s="8"/>
+      <c r="E902" s="8"/>
+    </row>
+    <row r="903" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C903" s="8"/>
+      <c r="D903" s="8"/>
+      <c r="E903" s="8"/>
+    </row>
+    <row r="904" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C904" s="8"/>
+      <c r="D904" s="8"/>
+      <c r="E904" s="8"/>
+    </row>
+    <row r="905" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C905" s="8"/>
+      <c r="D905" s="8"/>
+      <c r="E905" s="8"/>
+    </row>
+    <row r="906" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C906" s="8"/>
+      <c r="D906" s="8"/>
+      <c r="E906" s="8"/>
+    </row>
+    <row r="907" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C907" s="8"/>
+      <c r="D907" s="8"/>
+      <c r="E907" s="8"/>
+    </row>
+    <row r="908" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C908" s="8"/>
+      <c r="D908" s="8"/>
+      <c r="E908" s="8"/>
+    </row>
+    <row r="909" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C909" s="8"/>
+      <c r="D909" s="8"/>
+      <c r="E909" s="8"/>
+    </row>
+    <row r="910" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C910" s="8"/>
+      <c r="D910" s="8"/>
+      <c r="E910" s="8"/>
+    </row>
+    <row r="911" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C911" s="8"/>
+      <c r="D911" s="8"/>
+      <c r="E911" s="8"/>
+    </row>
+    <row r="912" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C912" s="8"/>
+      <c r="D912" s="8"/>
+      <c r="E912" s="8"/>
+    </row>
+    <row r="913" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C913" s="8"/>
+      <c r="D913" s="8"/>
+      <c r="E913" s="8"/>
+    </row>
+    <row r="914" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C914" s="8"/>
+      <c r="D914" s="8"/>
+      <c r="E914" s="8"/>
+    </row>
+    <row r="915" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C915" s="8"/>
+      <c r="D915" s="8"/>
+      <c r="E915" s="8"/>
+    </row>
+    <row r="916" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C916" s="8"/>
+      <c r="D916" s="8"/>
+      <c r="E916" s="8"/>
+    </row>
+    <row r="917" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C917" s="8"/>
+      <c r="D917" s="8"/>
+      <c r="E917" s="8"/>
+    </row>
+    <row r="918" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C918" s="8"/>
+      <c r="D918" s="8"/>
+      <c r="E918" s="8"/>
+    </row>
+    <row r="919" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C919" s="8"/>
+      <c r="D919" s="8"/>
+      <c r="E919" s="8"/>
+    </row>
+    <row r="920" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C920" s="8"/>
+      <c r="D920" s="8"/>
+      <c r="E920" s="8"/>
+    </row>
+    <row r="921" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C921" s="8"/>
+      <c r="D921" s="8"/>
+      <c r="E921" s="8"/>
+    </row>
+    <row r="922" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C922" s="8"/>
+      <c r="D922" s="8"/>
+      <c r="E922" s="8"/>
+    </row>
+    <row r="923" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C923" s="8"/>
+      <c r="D923" s="8"/>
+      <c r="E923" s="8"/>
+    </row>
+    <row r="924" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C924" s="8"/>
+      <c r="D924" s="8"/>
+      <c r="E924" s="8"/>
+    </row>
+    <row r="925" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C925" s="8"/>
+      <c r="D925" s="8"/>
+      <c r="E925" s="8"/>
+    </row>
+    <row r="926" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C926" s="8"/>
+      <c r="D926" s="8"/>
+      <c r="E926" s="8"/>
+    </row>
+    <row r="927" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C927" s="8"/>
+      <c r="D927" s="8"/>
+      <c r="E927" s="8"/>
+    </row>
+    <row r="928" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C928" s="8"/>
+      <c r="D928" s="8"/>
+      <c r="E928" s="8"/>
+    </row>
+    <row r="929" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C929" s="8"/>
+      <c r="D929" s="8"/>
+      <c r="E929" s="8"/>
+    </row>
+    <row r="930" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C930" s="8"/>
+      <c r="D930" s="8"/>
+      <c r="E930" s="8"/>
+    </row>
+    <row r="931" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C931" s="8"/>
+      <c r="D931" s="8"/>
+      <c r="E931" s="8"/>
+    </row>
+    <row r="932" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C932" s="8"/>
+      <c r="D932" s="8"/>
+      <c r="E932" s="8"/>
+    </row>
+    <row r="933" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C933" s="8"/>
+      <c r="D933" s="8"/>
+      <c r="E933" s="8"/>
+    </row>
+    <row r="934" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C934" s="8"/>
+      <c r="D934" s="8"/>
+      <c r="E934" s="8"/>
+    </row>
+    <row r="935" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C935" s="8"/>
+      <c r="D935" s="8"/>
+      <c r="E935" s="8"/>
+    </row>
+    <row r="936" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C936" s="8"/>
+      <c r="D936" s="8"/>
+      <c r="E936" s="8"/>
+    </row>
+    <row r="937" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C937" s="8"/>
+      <c r="D937" s="8"/>
+      <c r="E937" s="8"/>
+    </row>
+    <row r="938" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C938" s="8"/>
+      <c r="D938" s="8"/>
+      <c r="E938" s="8"/>
+    </row>
+    <row r="939" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C939" s="8"/>
+      <c r="D939" s="8"/>
+      <c r="E939" s="8"/>
+    </row>
+    <row r="940" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C940" s="8"/>
+      <c r="D940" s="8"/>
+      <c r="E940" s="8"/>
+    </row>
+    <row r="941" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C941" s="8"/>
+      <c r="D941" s="8"/>
+      <c r="E941" s="8"/>
+    </row>
+    <row r="942" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C942" s="8"/>
+      <c r="D942" s="8"/>
+      <c r="E942" s="8"/>
+    </row>
+    <row r="943" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C943" s="8"/>
+      <c r="D943" s="8"/>
+      <c r="E943" s="8"/>
+    </row>
+    <row r="944" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C944" s="8"/>
+      <c r="D944" s="8"/>
+      <c r="E944" s="8"/>
+    </row>
+    <row r="945" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C945" s="8"/>
+      <c r="D945" s="8"/>
+      <c r="E945" s="8"/>
+    </row>
+    <row r="946" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C946" s="8"/>
+      <c r="D946" s="8"/>
+      <c r="E946" s="8"/>
+    </row>
+    <row r="947" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C947" s="8"/>
+      <c r="D947" s="8"/>
+      <c r="E947" s="8"/>
+    </row>
+    <row r="948" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C948" s="8"/>
+      <c r="D948" s="8"/>
+      <c r="E948" s="8"/>
+    </row>
+    <row r="949" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C949" s="8"/>
+      <c r="D949" s="8"/>
+      <c r="E949" s="8"/>
+    </row>
+    <row r="950" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C950" s="8"/>
+      <c r="D950" s="8"/>
+      <c r="E950" s="8"/>
+    </row>
+    <row r="951" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C951" s="8"/>
+      <c r="D951" s="8"/>
+      <c r="E951" s="8"/>
+    </row>
+    <row r="952" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C952" s="8"/>
+      <c r="D952" s="8"/>
+      <c r="E952" s="8"/>
+    </row>
+    <row r="953" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C953" s="8"/>
+      <c r="D953" s="8"/>
+      <c r="E953" s="8"/>
+    </row>
+    <row r="954" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C954" s="8"/>
+      <c r="D954" s="8"/>
+      <c r="E954" s="8"/>
+    </row>
+    <row r="955" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C955" s="8"/>
+      <c r="D955" s="8"/>
+      <c r="E955" s="8"/>
+    </row>
+    <row r="956" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C956" s="8"/>
+      <c r="D956" s="8"/>
+      <c r="E956" s="8"/>
+    </row>
+    <row r="957" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C957" s="8"/>
+      <c r="D957" s="8"/>
+      <c r="E957" s="8"/>
+    </row>
+    <row r="958" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C958" s="8"/>
+      <c r="D958" s="8"/>
+      <c r="E958" s="8"/>
+    </row>
+    <row r="959" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C959" s="8"/>
+      <c r="D959" s="8"/>
+      <c r="E959" s="8"/>
+    </row>
+    <row r="960" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C960" s="8"/>
+      <c r="D960" s="8"/>
+      <c r="E960" s="8"/>
+    </row>
+    <row r="961" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C961" s="8"/>
+      <c r="D961" s="8"/>
+      <c r="E961" s="8"/>
+    </row>
+    <row r="962" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C962" s="8"/>
+      <c r="D962" s="8"/>
+      <c r="E962" s="8"/>
+    </row>
+    <row r="963" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C963" s="8"/>
+      <c r="D963" s="8"/>
+      <c r="E963" s="8"/>
+    </row>
+    <row r="964" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C964" s="8"/>
+      <c r="D964" s="8"/>
+      <c r="E964" s="8"/>
+    </row>
+    <row r="965" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C965" s="8"/>
+      <c r="D965" s="8"/>
+      <c r="E965" s="8"/>
+    </row>
+    <row r="966" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C966" s="8"/>
+      <c r="D966" s="8"/>
+      <c r="E966" s="8"/>
+    </row>
+    <row r="967" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C967" s="8"/>
+      <c r="D967" s="8"/>
+      <c r="E967" s="8"/>
+    </row>
+    <row r="968" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C968" s="8"/>
+      <c r="D968" s="8"/>
+      <c r="E968" s="8"/>
+    </row>
+    <row r="969" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C969" s="8"/>
+      <c r="D969" s="8"/>
+      <c r="E969" s="8"/>
+    </row>
+    <row r="970" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C970" s="8"/>
+      <c r="D970" s="8"/>
+      <c r="E970" s="8"/>
+    </row>
+    <row r="971" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C971" s="8"/>
+      <c r="D971" s="8"/>
+      <c r="E971" s="8"/>
+    </row>
+    <row r="972" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C972" s="8"/>
+      <c r="D972" s="8"/>
+      <c r="E972" s="8"/>
+    </row>
+    <row r="973" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C973" s="8"/>
+      <c r="D973" s="8"/>
+      <c r="E973" s="8"/>
+    </row>
+    <row r="974" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C974" s="8"/>
+      <c r="D974" s="8"/>
+      <c r="E974" s="8"/>
+    </row>
+    <row r="975" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C975" s="8"/>
+      <c r="D975" s="8"/>
+      <c r="E975" s="8"/>
+    </row>
+    <row r="976" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C976" s="8"/>
+      <c r="D976" s="8"/>
+      <c r="E976" s="8"/>
+    </row>
+    <row r="977" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C977" s="8"/>
+      <c r="D977" s="8"/>
+      <c r="E977" s="8"/>
+    </row>
+    <row r="978" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C978" s="8"/>
+      <c r="D978" s="8"/>
+      <c r="E978" s="8"/>
+    </row>
+    <row r="979" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C979" s="8"/>
+      <c r="D979" s="8"/>
+      <c r="E979" s="8"/>
+    </row>
+    <row r="980" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C980" s="8"/>
+      <c r="D980" s="8"/>
+      <c r="E980" s="8"/>
+    </row>
+    <row r="981" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C981" s="8"/>
+      <c r="D981" s="8"/>
+      <c r="E981" s="8"/>
+    </row>
+    <row r="982" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C982" s="8"/>
+      <c r="D982" s="8"/>
+      <c r="E982" s="8"/>
+    </row>
+    <row r="983" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C983" s="8"/>
+      <c r="D983" s="8"/>
+      <c r="E983" s="8"/>
+    </row>
+    <row r="984" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C984" s="8"/>
+      <c r="D984" s="8"/>
+      <c r="E984" s="8"/>
+    </row>
+    <row r="985" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C985" s="8"/>
+      <c r="D985" s="8"/>
+      <c r="E985" s="8"/>
+    </row>
+    <row r="986" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C986" s="8"/>
+      <c r="D986" s="8"/>
+      <c r="E986" s="8"/>
+    </row>
+    <row r="987" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C987" s="8"/>
+      <c r="D987" s="8"/>
+      <c r="E987" s="8"/>
+    </row>
+    <row r="988" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C988" s="8"/>
+      <c r="D988" s="8"/>
+      <c r="E988" s="8"/>
+    </row>
+    <row r="989" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C989" s="8"/>
+      <c r="D989" s="8"/>
+      <c r="E989" s="8"/>
+    </row>
+    <row r="990" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C990" s="8"/>
+      <c r="D990" s="8"/>
+      <c r="E990" s="8"/>
+    </row>
+    <row r="991" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C991" s="8"/>
+      <c r="D991" s="8"/>
+      <c r="E991" s="8"/>
+    </row>
+    <row r="992" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C992" s="8"/>
+      <c r="D992" s="8"/>
+      <c r="E992" s="8"/>
+    </row>
+    <row r="993" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C993" s="8"/>
+      <c r="D993" s="8"/>
+      <c r="E993" s="8"/>
+    </row>
+    <row r="994" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C994" s="8"/>
+      <c r="D994" s="8"/>
+      <c r="E994" s="8"/>
+    </row>
+    <row r="995" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C995" s="8"/>
+      <c r="D995" s="8"/>
+      <c r="E995" s="8"/>
+    </row>
+    <row r="996" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C996" s="8"/>
+      <c r="D996" s="8"/>
+      <c r="E996" s="8"/>
+    </row>
+    <row r="997" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C997" s="8"/>
+      <c r="D997" s="8"/>
+      <c r="E997" s="8"/>
+    </row>
+    <row r="998" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C998" s="8"/>
+      <c r="D998" s="8"/>
+      <c r="E998" s="8"/>
+    </row>
+    <row r="999" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C999" s="8"/>
+      <c r="D999" s="8"/>
+      <c r="E999" s="8"/>
+    </row>
+    <row r="1000" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1000" s="8"/>
+      <c r="D1000" s="8"/>
+      <c r="E1000" s="8"/>
+    </row>
+    <row r="1001" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1001" s="8"/>
+      <c r="D1001" s="8"/>
+      <c r="E1001" s="8"/>
+    </row>
+    <row r="1002" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1002" s="8"/>
+      <c r="D1002" s="8"/>
+      <c r="E1002" s="8"/>
+    </row>
+    <row r="1003" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1003" s="8"/>
+      <c r="D1003" s="8"/>
+      <c r="E1003" s="8"/>
+    </row>
+    <row r="1004" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1004" s="8"/>
+      <c r="D1004" s="8"/>
+      <c r="E1004" s="8"/>
+    </row>
+    <row r="1005" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1005" s="8"/>
+      <c r="D1005" s="8"/>
+      <c r="E1005" s="8"/>
+    </row>
+    <row r="1006" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1006" s="8"/>
+      <c r="D1006" s="8"/>
+      <c r="E1006" s="8"/>
     </row>
   </sheetData>
   <dataValidations count="3">

--- a/roles/fortigate.ztp/files/spreadsheets/Ansible_ZTP_Local_Simple_Topology.xlsx
+++ b/roles/fortigate.ztp/files/spreadsheets/Ansible_ZTP_Local_Simple_Topology.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Locations" sheetId="1" state="visible" r:id="rId2"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="363">
   <si>
     <t xml:space="preserve">Location Name</t>
   </si>
@@ -224,9 +224,6 @@
   </si>
   <si>
     <t xml:space="preserve">root</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADOM_64</t>
   </si>
   <si>
     <t xml:space="preserve">internal5</t>
@@ -1537,7 +1534,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B26" activeCellId="1" sqref="2:6 B26"/>
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1608,7 +1605,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="1" sqref="2:6 E16"/>
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1630,34 +1627,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1665,28 +1662,28 @@
         <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="I2" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="J2" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="J2" s="13" t="s">
+      <c r="K2" s="13" t="s">
         <v>204</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1712,7 +1709,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="2:6"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1725,19 +1722,19 @@
         <v>35</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>209</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -1759,10 +1756,10 @@
   <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="1" sqref="2:6 F12"/>
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.0234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="18"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="7" width="16"/>
@@ -1777,76 +1774,76 @@
         <v>35</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="W1" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="V1" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1854,28 +1851,28 @@
         <v>18</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>236</v>
-      </c>
       <c r="G2" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J2" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="K2" s="0" t="s">
         <v>237</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>238</v>
       </c>
       <c r="L2" s="0" t="n">
         <v>14</v>
@@ -1884,10 +1881,10 @@
         <v>86400</v>
       </c>
       <c r="N2" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>237</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>238</v>
       </c>
       <c r="P2" s="0" t="n">
         <v>14</v>
@@ -1902,13 +1899,13 @@
         <v>1</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="U2" s="0" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="V2" s="0" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="W2" s="0" t="n">
         <v>15000</v>
@@ -1922,28 +1919,28 @@
         <v>18</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>240</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>241</v>
-      </c>
       <c r="G3" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J3" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="K3" s="0" t="s">
         <v>237</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>238</v>
       </c>
       <c r="L3" s="0" t="n">
         <v>14</v>
@@ -1952,10 +1949,10 @@
         <v>86400</v>
       </c>
       <c r="N3" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>237</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>238</v>
       </c>
       <c r="P3" s="0" t="n">
         <v>14</v>
@@ -1970,13 +1967,13 @@
         <v>2</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="U3" s="0" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="V3" s="0" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="W3" s="0" t="n">
         <v>25000</v>
@@ -2045,7 +2042,7 @@
   <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="2:6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2062,22 +2059,22 @@
         <v>35</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>243</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2088,16 +2085,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2108,16 +2105,16 @@
         <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2128,19 +2125,19 @@
         <v>3</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>247</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>248</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2151,19 +2148,19 @@
         <v>4</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2501,7 +2498,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="2:6 C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2523,34 +2520,34 @@
         <v>35</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="H1" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="I1" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="J1" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="K1" s="20" t="s">
         <v>259</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2558,16 +2555,16 @@
         <v>18</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>262</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>263</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>250</v>
@@ -2593,16 +2590,16 @@
         <v>18</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>264</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>265</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>250</v>
@@ -2628,16 +2625,16 @@
         <v>18</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C4" s="10" t="n">
         <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>250</v>
@@ -2663,16 +2660,16 @@
         <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C5" s="10" t="n">
         <v>4</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>250</v>
@@ -2712,10 +2709,10 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="1" sqref="2:6 J1"/>
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="24.66"/>
@@ -2731,40 +2728,40 @@
         <v>35</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D1" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="K1" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="J1" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="K1" s="17" t="s">
+      <c r="L1" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="M1" s="17" t="s">
         <v>275</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2775,34 +2772,34 @@
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="I2" s="0" t="s">
         <v>278</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>278</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>279</v>
-      </c>
       <c r="J2" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2824,7 +2821,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="2:6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2844,46 +2841,46 @@
         <v>35</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="N1" s="5" t="s">
-        <v>292</v>
-      </c>
       <c r="O1" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2894,20 +2891,20 @@
         <v>65000</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E2" s="7" t="n">
         <v>65000</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J2" s="7" t="n">
         <v>10</v>
@@ -2916,10 +2913,10 @@
         <v>2</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2930,20 +2927,20 @@
         <v>65000</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E3" s="7" t="n">
         <v>65000</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J3" s="7" t="n">
         <v>10</v>
@@ -2953,10 +2950,10 @@
       </c>
       <c r="L3" s="7"/>
       <c r="M3" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O3" s="7"/>
     </row>
@@ -2997,7 +2994,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M21" activeCellId="1" sqref="2:6 M21"/>
+      <selection pane="topLeft" activeCell="M21" activeCellId="0" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3016,43 +3013,43 @@
         <v>35</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>294</v>
-      </c>
       <c r="D1" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>292</v>
-      </c>
       <c r="N1" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3060,20 +3057,20 @@
         <v>18</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="D2" s="7" t="n">
         <v>65000</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F2" s="8"/>
       <c r="H2" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I2" s="7" t="n">
         <v>10</v>
@@ -3082,10 +3079,10 @@
         <v>2</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3093,20 +3090,20 @@
         <v>18</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>297</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>298</v>
       </c>
       <c r="D3" s="7" t="n">
         <v>65000</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F3" s="8"/>
       <c r="H3" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I3" s="7" t="n">
         <v>10</v>
@@ -3116,10 +3113,10 @@
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N3" s="7"/>
     </row>
@@ -3217,7 +3214,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="2:6"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3232,25 +3229,25 @@
         <v>35</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>303</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3258,10 +3255,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3269,10 +3266,10 @@
         <v>18</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3297,7 +3294,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I25" activeCellId="1" sqref="2:6 I25"/>
+      <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3311,13 +3308,13 @@
         <v>35</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>305</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3325,13 +3322,13 @@
         <v>18</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C2" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="D2" s="0" t="s">
         <v>307</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3339,13 +3336,13 @@
         <v>18</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -3367,7 +3364,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="2:6"/>
+      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3527,7 +3524,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="2:6"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3542,16 +3539,16 @@
         <v>35</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>311</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3559,16 +3556,16 @@
         <v>18</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -3590,7 +3587,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I20" activeCellId="1" sqref="2:6 I20"/>
+      <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3606,13 +3603,13 @@
         <v>35</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3620,13 +3617,13 @@
         <v>18</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3634,13 +3631,13 @@
         <v>18</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -3662,7 +3659,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="2:6"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3672,7 +3669,7 @@
         <v>35</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3680,7 +3677,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -3702,7 +3699,7 @@
   <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="1" sqref="2:6 E8"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.8359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3716,211 +3713,211 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="M1" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>333</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>335</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="H2" s="0" t="s">
+      <c r="I2" s="0" t="s">
         <v>336</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="J2" s="24" t="s">
         <v>337</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="K2" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="U2" s="0" t="s">
         <v>338</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="U2" s="0" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="I3" s="0" t="s">
         <v>340</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>336</v>
-      </c>
-      <c r="I3" s="0" t="s">
+      <c r="J3" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="M3" s="0" t="s">
         <v>341</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="N3" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="U3" s="0" t="s">
         <v>338</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>342</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>343</v>
-      </c>
-      <c r="U3" s="0" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>344</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>345</v>
-      </c>
       <c r="G4" s="0" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I4" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" s="0" t="s">
         <v>341</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="N4" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="U4" s="0" t="s">
         <v>338</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>342</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>343</v>
-      </c>
-      <c r="U4" s="0" t="s">
-        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -3948,7 +3945,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J14" activeCellId="1" sqref="2:6 J14"/>
+      <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3959,58 +3956,58 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="224" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>348</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>350</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>352</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="B6" s="25" t="s">
         <v>354</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>356</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -4032,7 +4029,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="2:6"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4043,34 +4040,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="409.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>359</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>361</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -4091,8 +4088,8 @@
   </sheetPr>
   <dimension ref="A1:X3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="1" sqref="2:6 C13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4201,19 +4198,19 @@
         <v>59</v>
       </c>
       <c r="C2" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>61</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>62</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>2</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>250000</v>
@@ -4222,7 +4219,7 @@
         <v>500000</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M2" s="0" t="n">
         <v>35000</v>
@@ -4231,19 +4228,19 @@
         <v>75000</v>
       </c>
       <c r="S2" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="T2" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="T2" s="0" t="s">
+      <c r="V2" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="V2" s="0" t="s">
+      <c r="W2" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="X2" s="0" t="s">
         <v>67</v>
-      </c>
-      <c r="W2" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="X2" s="0" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4254,22 +4251,22 @@
         <v>59</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>69</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>70</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>71</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>72</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>250000</v>
@@ -4278,10 +4275,10 @@
         <v>500000</v>
       </c>
       <c r="K3" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="L3" s="0" t="s">
         <v>73</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>74</v>
       </c>
       <c r="M3" s="0" t="n">
         <v>35000</v>
@@ -4290,10 +4287,10 @@
         <v>75000</v>
       </c>
       <c r="O3" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="P3" s="0" t="s">
         <v>75</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>76</v>
       </c>
       <c r="Q3" s="0" t="n">
         <v>10000</v>
@@ -4302,10 +4299,10 @@
         <v>15000</v>
       </c>
       <c r="S3" s="0" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="X3" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -4327,7 +4324,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B32" activeCellId="1" sqref="2:6 B32"/>
+      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4344,25 +4341,25 @@
         <v>35</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4370,22 +4367,22 @@
         <v>18</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>88</v>
-      </c>
       <c r="F2" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>100</v>
@@ -4410,7 +4407,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="2:6 E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4426,10 +4423,10 @@
         <v>35</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -4451,7 +4448,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="2:6"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4466,19 +4463,19 @@
         <v>35</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4486,13 +4483,13 @@
         <v>18</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>97</v>
-      </c>
       <c r="D2" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>40</v>
@@ -4503,13 +4500,13 @@
         <v>31</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>97</v>
-      </c>
       <c r="D3" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>40</v>
@@ -4604,7 +4601,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O25" activeCellId="1" sqref="2:6 O25"/>
+      <selection pane="topLeft" activeCell="O25" activeCellId="0" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4630,43 +4627,43 @@
         <v>35</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>109</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4674,34 +4671,34 @@
         <v>18</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>111</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>112</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="H2" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="I2" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="N2" s="0" t="s">
         <v>115</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4709,37 +4706,37 @@
         <v>18</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>20</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="H3" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="I3" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>121</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4747,37 +4744,37 @@
         <v>18</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>30</v>
       </c>
       <c r="E4" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="G4" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="H4" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="N4" s="0" t="s">
         <v>126</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4785,37 +4782,37 @@
         <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>98</v>
       </c>
       <c r="E5" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>130</v>
-      </c>
       <c r="G5" s="0" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H5" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="N5" s="0" t="s">
         <v>121</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4823,37 +4820,37 @@
         <v>18</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>99</v>
       </c>
       <c r="E6" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F6" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="G6" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>134</v>
-      </c>
       <c r="H6" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="N6" s="0" t="s">
         <v>121</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4861,37 +4858,37 @@
         <v>18</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>222</v>
       </c>
       <c r="E7" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="F7" s="0" t="s">
-        <v>137</v>
-      </c>
       <c r="G7" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="H7" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="I7" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="N7" s="0" t="s">
         <v>121</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5015,7 +5012,7 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="2:6"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5037,49 +5034,49 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5090,41 +5087,41 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5135,43 +5132,43 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" s="0" t="s">
+      <c r="H3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>162</v>
-      </c>
       <c r="N3" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5182,40 +5179,40 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>154</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K4" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>162</v>
-      </c>
       <c r="N4" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O4" s="3"/>
     </row>
@@ -5227,38 +5224,38 @@
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K5" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>162</v>
-      </c>
       <c r="N5" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O5" s="3"/>
     </row>
@@ -5270,39 +5267,39 @@
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5313,41 +5310,41 @@
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L7" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="O7" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5358,41 +5355,41 @@
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N8" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="O8" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5403,41 +5400,41 @@
         <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N9" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="O9" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5448,37 +5445,37 @@
         <v>1</v>
       </c>
       <c r="C10" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>154</v>
-      </c>
       <c r="H10" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5489,37 +5486,37 @@
         <v>2</v>
       </c>
       <c r="C11" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="D11" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>154</v>
-      </c>
       <c r="H11" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5530,37 +5527,37 @@
         <v>3</v>
       </c>
       <c r="C12" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="D12" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>154</v>
-      </c>
       <c r="H12" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5571,37 +5568,37 @@
         <v>4</v>
       </c>
       <c r="C13" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>154</v>
-      </c>
       <c r="H13" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5612,37 +5609,37 @@
         <v>5</v>
       </c>
       <c r="C14" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="D14" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>154</v>
-      </c>
       <c r="H14" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5653,37 +5650,37 @@
         <v>6</v>
       </c>
       <c r="C15" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="D15" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>154</v>
-      </c>
       <c r="H15" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5694,37 +5691,37 @@
         <v>7</v>
       </c>
       <c r="C16" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="D16" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>154</v>
-      </c>
       <c r="H16" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5735,37 +5732,37 @@
         <v>8</v>
       </c>
       <c r="C17" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="D17" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>154</v>
-      </c>
       <c r="H17" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5776,37 +5773,37 @@
         <v>9</v>
       </c>
       <c r="C18" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="D18" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>154</v>
-      </c>
       <c r="H18" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5817,37 +5814,37 @@
         <v>10</v>
       </c>
       <c r="C19" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="D19" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>154</v>
-      </c>
       <c r="H19" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5858,37 +5855,37 @@
         <v>11</v>
       </c>
       <c r="C20" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="D20" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>154</v>
-      </c>
       <c r="H20" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5899,37 +5896,37 @@
         <v>12</v>
       </c>
       <c r="C21" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="D21" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>154</v>
-      </c>
       <c r="H21" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5940,37 +5937,37 @@
         <v>13</v>
       </c>
       <c r="C22" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="D22" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>154</v>
-      </c>
       <c r="H22" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5981,37 +5978,37 @@
         <v>14</v>
       </c>
       <c r="C23" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="D23" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>154</v>
-      </c>
       <c r="H23" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6022,37 +6019,37 @@
         <v>15</v>
       </c>
       <c r="C24" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="D24" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>154</v>
-      </c>
       <c r="H24" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6063,37 +6060,37 @@
         <v>16</v>
       </c>
       <c r="C25" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="D25" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>154</v>
-      </c>
       <c r="H25" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6104,37 +6101,37 @@
         <v>17</v>
       </c>
       <c r="C26" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="D26" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>154</v>
-      </c>
       <c r="H26" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6145,37 +6142,37 @@
         <v>18</v>
       </c>
       <c r="C27" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="G27" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="D27" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="G27" s="0" t="s">
-        <v>154</v>
-      </c>
       <c r="H27" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6186,37 +6183,37 @@
         <v>19</v>
       </c>
       <c r="C28" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="G28" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="D28" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="G28" s="0" t="s">
-        <v>154</v>
-      </c>
       <c r="H28" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6227,37 +6224,37 @@
         <v>20</v>
       </c>
       <c r="C29" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="D29" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="G29" s="0" t="s">
-        <v>154</v>
-      </c>
       <c r="H29" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6268,37 +6265,37 @@
         <v>21</v>
       </c>
       <c r="C30" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="D30" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="F30" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>154</v>
-      </c>
       <c r="H30" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6309,37 +6306,37 @@
         <v>22</v>
       </c>
       <c r="C31" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="G31" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="D31" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="G31" s="0" t="s">
-        <v>154</v>
-      </c>
       <c r="H31" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6350,37 +6347,37 @@
         <v>23</v>
       </c>
       <c r="C32" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="G32" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="D32" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="F32" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="G32" s="0" t="s">
-        <v>154</v>
-      </c>
       <c r="H32" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6391,37 +6388,37 @@
         <v>24</v>
       </c>
       <c r="C33" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="E33" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="E33" s="0" t="s">
-        <v>167</v>
-      </c>
       <c r="F33" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -6442,8 +6439,8 @@
   </sheetPr>
   <dimension ref="A1:L1006"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F41" activeCellId="1" sqref="2:6 F41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F41" activeCellId="0" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6466,37 +6463,37 @@
         <v>35</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>177</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6504,25 +6501,25 @@
         <v>18</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="G2" s="0" t="s">
+      <c r="I2" s="0" t="s">
         <v>182</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6530,19 +6527,19 @@
         <v>18</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>185</v>
-      </c>
       <c r="D3" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>200</v>
@@ -6553,25 +6550,25 @@
         <v>18</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="I4" s="0" t="s">
         <v>186</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6579,25 +6576,25 @@
         <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="I5" s="0" t="s">
         <v>188</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6605,19 +6602,19 @@
         <v>18</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>201</v>
